--- a/CorrectionLists/KeywordsCorrection.xlsx
+++ b/CorrectionLists/KeywordsCorrection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2395804\PhD R code\Scopus-Web-Of-Science-Merger_Thesis_VG\CorrectionLists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8276FDF7-01E6-4238-9AFD-9F0091BF70B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D5E98-1598-4E60-96CA-37BD8CB80628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordsCorrection" sheetId="1" r:id="rId1"/>
@@ -3447,18 +3447,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3770,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C647"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="G583" sqref="G583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3882,7 +3871,7 @@
         <v>692</v>
       </c>
       <c r="C9" t="str">
-        <f>B9</f>
+        <f t="shared" ref="C9:C27" si="0">B9</f>
         <v>ACRYLIC</v>
       </c>
     </row>
@@ -3894,7 +3883,7 @@
         <v>692</v>
       </c>
       <c r="C10" t="str">
-        <f>B10</f>
+        <f t="shared" si="0"/>
         <v>ACRYLIC</v>
       </c>
     </row>
@@ -3906,7 +3895,7 @@
         <v>692</v>
       </c>
       <c r="C11" t="str">
-        <f>B11</f>
+        <f t="shared" si="0"/>
         <v>ACRYLIC</v>
       </c>
     </row>
@@ -3918,7 +3907,7 @@
         <v>692</v>
       </c>
       <c r="C12" t="str">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>ACRYLIC</v>
       </c>
     </row>
@@ -3930,7 +3919,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="str">
-        <f>B13</f>
+        <f t="shared" si="0"/>
         <v>ADHESIVE LIFTER</v>
       </c>
     </row>
@@ -3942,7 +3931,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>B14</f>
+        <f t="shared" si="0"/>
         <v>AEROSOL</v>
       </c>
     </row>
@@ -3954,7 +3943,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="str">
-        <f>B15</f>
+        <f t="shared" si="0"/>
         <v>AIRBAG</v>
       </c>
     </row>
@@ -3966,7 +3955,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="str">
-        <f>B16</f>
+        <f t="shared" si="0"/>
         <v>AIRBORNE PARTICLE</v>
       </c>
     </row>
@@ -3978,7 +3967,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="str">
-        <f>B17</f>
+        <f t="shared" si="0"/>
         <v>ALGORITHM</v>
       </c>
     </row>
@@ -3990,7 +3979,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="str">
-        <f>B18</f>
+        <f t="shared" si="0"/>
         <v>ALIZARIN RED S (ARS)</v>
       </c>
     </row>
@@ -4002,7 +3991,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="str">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>ALKALOID</v>
       </c>
     </row>
@@ -4014,7 +4003,7 @@
         <v>26</v>
       </c>
       <c r="C20" t="str">
-        <f>B20</f>
+        <f t="shared" si="0"/>
         <v>ALLOY</v>
       </c>
     </row>
@@ -4026,7 +4015,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="str">
-        <f>B21</f>
+        <f t="shared" si="0"/>
         <v>ALUMINIUM (AL)</v>
       </c>
     </row>
@@ -4038,7 +4027,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="str">
-        <f>B22</f>
+        <f t="shared" si="0"/>
         <v>AMMUNITION</v>
       </c>
     </row>
@@ -4050,7 +4039,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="str">
-        <f>B23</f>
+        <f t="shared" si="0"/>
         <v>ANIMAL</v>
       </c>
     </row>
@@ -4062,7 +4051,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="str">
-        <f>B24</f>
+        <f t="shared" si="0"/>
         <v>ANION</v>
       </c>
     </row>
@@ -4074,7 +4063,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="str">
-        <f>B25</f>
+        <f t="shared" si="0"/>
         <v>ANTIMONY (SB)</v>
       </c>
     </row>
@@ -4086,7 +4075,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="str">
-        <f>B26</f>
+        <f t="shared" si="0"/>
         <v>ANTIMONY (SB)</v>
       </c>
     </row>
@@ -4098,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="str">
-        <f>B27</f>
+        <f t="shared" si="0"/>
         <v>ARTIFACT</v>
       </c>
     </row>
@@ -4110,7 +4099,7 @@
         <v>41</v>
       </c>
       <c r="C28" t="str">
-        <f>RIGHT(B28,LEN(B28)-FIND("@",SUBSTITUTE(B28," (","@",(LEN(B28)-LEN(SUBSTITUTE(B28," (","")))/LEN(" ("))))</f>
+        <f t="shared" ref="C28:C34" si="1">RIGHT(B28,LEN(B28)-FIND("@",SUBSTITUTE(B28," (","@",(LEN(B28)-LEN(SUBSTITUTE(B28," (","")))/LEN(" ("))))</f>
         <v>(AAS)</v>
       </c>
     </row>
@@ -4122,7 +4111,7 @@
         <v>41</v>
       </c>
       <c r="C29" t="str">
-        <f>RIGHT(B29,LEN(B29)-FIND("@",SUBSTITUTE(B29," (","@",(LEN(B29)-LEN(SUBSTITUTE(B29," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="1"/>
         <v>(AAS)</v>
       </c>
     </row>
@@ -4134,7 +4123,7 @@
         <v>41</v>
       </c>
       <c r="C30" t="str">
-        <f>RIGHT(B30,LEN(B30)-FIND("@",SUBSTITUTE(B30," (","@",(LEN(B30)-LEN(SUBSTITUTE(B30," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="1"/>
         <v>(AAS)</v>
       </c>
     </row>
@@ -4146,7 +4135,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="str">
-        <f>RIGHT(B31,LEN(B31)-FIND("@",SUBSTITUTE(B31," (","@",(LEN(B31)-LEN(SUBSTITUTE(B31," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="1"/>
         <v>(AAS)</v>
       </c>
     </row>
@@ -4158,7 +4147,7 @@
         <v>41</v>
       </c>
       <c r="C32" t="str">
-        <f>RIGHT(B32,LEN(B32)-FIND("@",SUBSTITUTE(B32," (","@",(LEN(B32)-LEN(SUBSTITUTE(B32," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="1"/>
         <v>(AAS)</v>
       </c>
     </row>
@@ -4170,7 +4159,7 @@
         <v>41</v>
       </c>
       <c r="C33" t="str">
-        <f>RIGHT(B33,LEN(B33)-FIND("@",SUBSTITUTE(B33," (","@",(LEN(B33)-LEN(SUBSTITUTE(B33," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="1"/>
         <v>(AAS)</v>
       </c>
     </row>
@@ -4182,7 +4171,7 @@
         <v>41</v>
       </c>
       <c r="C34" t="str">
-        <f>RIGHT(B34,LEN(B34)-FIND("@",SUBSTITUTE(B34," (","@",(LEN(B34)-LEN(SUBSTITUTE(B34," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="1"/>
         <v>(AAS)</v>
       </c>
     </row>
@@ -4194,7 +4183,7 @@
         <v>56</v>
       </c>
       <c r="C35" t="str">
-        <f>B35</f>
+        <f t="shared" ref="C35:C58" si="2">B35</f>
         <v>BACKSCATTERED ELECTRON DETECTOR</v>
       </c>
     </row>
@@ -4206,7 +4195,7 @@
         <v>52</v>
       </c>
       <c r="C36" t="str">
-        <f>B36</f>
+        <f t="shared" si="2"/>
         <v>BACKSCATTER</v>
       </c>
     </row>
@@ -4218,7 +4207,7 @@
         <v>56</v>
       </c>
       <c r="C37" t="str">
-        <f>B37</f>
+        <f t="shared" si="2"/>
         <v>BACKSCATTERED ELECTRON DETECTOR</v>
       </c>
     </row>
@@ -4230,7 +4219,7 @@
         <v>52</v>
       </c>
       <c r="C38" t="str">
-        <f>B38</f>
+        <f t="shared" si="2"/>
         <v>BACKSCATTER</v>
       </c>
     </row>
@@ -4242,7 +4231,7 @@
         <v>52</v>
       </c>
       <c r="C39" t="str">
-        <f>B39</f>
+        <f t="shared" si="2"/>
         <v>BACKSCATTER</v>
       </c>
     </row>
@@ -4254,7 +4243,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="str">
-        <f>B40</f>
+        <f t="shared" si="2"/>
         <v>BALLISTIC</v>
       </c>
     </row>
@@ -4266,7 +4255,7 @@
         <v>61</v>
       </c>
       <c r="C41" t="str">
-        <f>B41</f>
+        <f t="shared" si="2"/>
         <v>BARIUM (BA)</v>
       </c>
     </row>
@@ -4278,7 +4267,7 @@
         <v>61</v>
       </c>
       <c r="C42" t="str">
-        <f>B42</f>
+        <f t="shared" si="2"/>
         <v>BARIUM (BA)</v>
       </c>
     </row>
@@ -4290,7 +4279,7 @@
         <v>696</v>
       </c>
       <c r="C43" t="str">
-        <f>B43</f>
+        <f t="shared" si="2"/>
         <v>BAYESIAN APPROACH</v>
       </c>
     </row>
@@ -4302,7 +4291,7 @@
         <v>696</v>
       </c>
       <c r="C44" t="str">
-        <f>B44</f>
+        <f t="shared" si="2"/>
         <v>BAYESIAN APPROACH</v>
       </c>
     </row>
@@ -4314,7 +4303,7 @@
         <v>64</v>
       </c>
       <c r="C45" t="str">
-        <f>B45</f>
+        <f t="shared" si="2"/>
         <v>BAYES THEOREM</v>
       </c>
     </row>
@@ -4326,7 +4315,7 @@
         <v>696</v>
       </c>
       <c r="C46" t="str">
-        <f>B46</f>
+        <f t="shared" si="2"/>
         <v>BAYESIAN APPROACH</v>
       </c>
     </row>
@@ -4338,7 +4327,7 @@
         <v>696</v>
       </c>
       <c r="C47" t="str">
-        <f>B47</f>
+        <f t="shared" si="2"/>
         <v>BAYESIAN APPROACH</v>
       </c>
     </row>
@@ -4350,7 +4339,7 @@
         <v>66</v>
       </c>
       <c r="C48" t="str">
-        <f>B48</f>
+        <f t="shared" si="2"/>
         <v>BIRD</v>
       </c>
     </row>
@@ -4362,7 +4351,7 @@
         <v>68</v>
       </c>
       <c r="C49" t="str">
-        <f>B49</f>
+        <f t="shared" si="2"/>
         <v>BISMUTH (BI)</v>
       </c>
     </row>
@@ -4374,7 +4363,7 @@
         <v>709</v>
       </c>
       <c r="C50" t="str">
-        <f>B50</f>
+        <f t="shared" si="2"/>
         <v>COTTON</v>
       </c>
     </row>
@@ -4386,7 +4375,7 @@
         <v>709</v>
       </c>
       <c r="C51" t="str">
-        <f>B51</f>
+        <f t="shared" si="2"/>
         <v>COTTON</v>
       </c>
     </row>
@@ -4398,7 +4387,7 @@
         <v>925</v>
       </c>
       <c r="C52" t="str">
-        <f>B52</f>
+        <f t="shared" si="2"/>
         <v>WOOL</v>
       </c>
     </row>
@@ -4410,7 +4399,7 @@
         <v>70</v>
       </c>
       <c r="C53" t="str">
-        <f>B53</f>
+        <f t="shared" si="2"/>
         <v>BODY FLUID</v>
       </c>
     </row>
@@ -4422,7 +4411,7 @@
         <v>72</v>
       </c>
       <c r="C54" t="str">
-        <f>B54</f>
+        <f t="shared" si="2"/>
         <v>BRAKE PAD</v>
       </c>
     </row>
@@ -4434,7 +4423,7 @@
         <v>74</v>
       </c>
       <c r="C55" t="str">
-        <f>B55</f>
+        <f t="shared" si="2"/>
         <v>BULLET HOLES</v>
       </c>
     </row>
@@ -4446,7 +4435,7 @@
         <v>76</v>
       </c>
       <c r="C56" t="str">
-        <f>B56</f>
+        <f t="shared" si="2"/>
         <v>BURN</v>
       </c>
     </row>
@@ -4458,7 +4447,7 @@
         <v>78</v>
       </c>
       <c r="C57" t="str">
-        <f>B57</f>
+        <f t="shared" si="2"/>
         <v>CAMERA</v>
       </c>
     </row>
@@ -4470,7 +4459,7 @@
         <v>700</v>
       </c>
       <c r="C58" t="str">
-        <f>B58</f>
+        <f t="shared" si="2"/>
         <v>CAPILLARY ELECTROPHORESIS (CE)</v>
       </c>
     </row>
@@ -4554,7 +4543,7 @@
         <v>91</v>
       </c>
       <c r="C65" t="str">
-        <f>B65</f>
+        <f t="shared" ref="C65:C72" si="3">B65</f>
         <v>CHEMICAL COMPOSITION</v>
       </c>
     </row>
@@ -4566,7 +4555,7 @@
         <v>93</v>
       </c>
       <c r="C66" t="str">
-        <f>B66</f>
+        <f t="shared" si="3"/>
         <v>CHEMICAL COMPOUND</v>
       </c>
     </row>
@@ -4578,7 +4567,7 @@
         <v>95</v>
       </c>
       <c r="C67" t="str">
-        <f>B67</f>
+        <f t="shared" si="3"/>
         <v>CHEMICAL IMAGE</v>
       </c>
     </row>
@@ -4590,7 +4579,7 @@
         <v>97</v>
       </c>
       <c r="C68" t="str">
-        <f>B68</f>
+        <f t="shared" si="3"/>
         <v>CHEMICAL WARFARE AGENTS (CWAS)</v>
       </c>
     </row>
@@ -4602,7 +4591,7 @@
         <v>97</v>
       </c>
       <c r="C69" t="str">
-        <f>B69</f>
+        <f t="shared" si="3"/>
         <v>CHEMICAL WARFARE AGENTS (CWAS)</v>
       </c>
     </row>
@@ -4614,7 +4603,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="str">
-        <f>B70</f>
+        <f t="shared" si="3"/>
         <v>CHEMOMETRICS</v>
       </c>
     </row>
@@ -4626,7 +4615,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="str">
-        <f>B71</f>
+        <f t="shared" si="3"/>
         <v>CHEMOMETRICS</v>
       </c>
     </row>
@@ -4638,7 +4627,7 @@
         <v>233</v>
       </c>
       <c r="C72" t="str">
-        <f>B72</f>
+        <f t="shared" si="3"/>
         <v>GAS CHROMATOGRAPHY (GC)</v>
       </c>
     </row>
@@ -4709,7 +4698,7 @@
         <v>603</v>
       </c>
       <c r="C78" t="str">
-        <f>B78</f>
+        <f t="shared" ref="C78:C99" si="4">B78</f>
         <v>THIN LAYER CHROMATOGRAPHY (TLC)</v>
       </c>
     </row>
@@ -4721,7 +4710,7 @@
         <v>918</v>
       </c>
       <c r="C79" t="str">
-        <f>B79</f>
+        <f t="shared" si="4"/>
         <v>THIN-LAYER CHROMATOGRAPHY (TLC)</v>
       </c>
     </row>
@@ -4733,7 +4722,7 @@
         <v>704</v>
       </c>
       <c r="C80" t="str">
-        <f>B80</f>
+        <f t="shared" si="4"/>
         <v>CLOTHING</v>
       </c>
     </row>
@@ -4745,7 +4734,7 @@
         <v>704</v>
       </c>
       <c r="C81" t="str">
-        <f>B81</f>
+        <f t="shared" si="4"/>
         <v>CLOTHING</v>
       </c>
     </row>
@@ -4757,7 +4746,7 @@
         <v>707</v>
       </c>
       <c r="C82" t="str">
-        <f>B82</f>
+        <f t="shared" si="4"/>
         <v>COLOUR</v>
       </c>
     </row>
@@ -4769,7 +4758,7 @@
         <v>103</v>
       </c>
       <c r="C83" t="str">
-        <f>B83</f>
+        <f t="shared" si="4"/>
         <v>CONCENTRATION (PARAMETER)</v>
       </c>
     </row>
@@ -4781,7 +4770,7 @@
         <v>467</v>
       </c>
       <c r="C84" t="str">
-        <f>B84</f>
+        <f t="shared" si="4"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -4793,7 +4782,7 @@
         <v>107</v>
       </c>
       <c r="C85" t="str">
-        <f>B85</f>
+        <f t="shared" si="4"/>
         <v>COORDINATION COMPOUND</v>
       </c>
     </row>
@@ -4805,7 +4794,7 @@
         <v>109</v>
       </c>
       <c r="C86" t="str">
-        <f>B86</f>
+        <f t="shared" si="4"/>
         <v>COPPER (CU)</v>
       </c>
     </row>
@@ -4817,7 +4806,7 @@
         <v>709</v>
       </c>
       <c r="C87" t="str">
-        <f>B87</f>
+        <f t="shared" si="4"/>
         <v>COTTON</v>
       </c>
     </row>
@@ -4829,7 +4818,7 @@
         <v>709</v>
       </c>
       <c r="C88" t="str">
-        <f>B88</f>
+        <f t="shared" si="4"/>
         <v>COTTON</v>
       </c>
     </row>
@@ -4841,7 +4830,7 @@
         <v>709</v>
       </c>
       <c r="C89" t="str">
-        <f>B89</f>
+        <f t="shared" si="4"/>
         <v>COTTON</v>
       </c>
     </row>
@@ -4853,7 +4842,7 @@
         <v>709</v>
       </c>
       <c r="C90" t="str">
-        <f>B90</f>
+        <f t="shared" si="4"/>
         <v>COTTON</v>
       </c>
     </row>
@@ -4865,7 +4854,7 @@
         <v>111</v>
       </c>
       <c r="C91" t="str">
-        <f>B91</f>
+        <f t="shared" si="4"/>
         <v>CRIME SCENE INVESTIGATION</v>
       </c>
     </row>
@@ -4877,7 +4866,7 @@
         <v>714</v>
       </c>
       <c r="C92" t="str">
-        <f>B92</f>
+        <f t="shared" si="4"/>
         <v>CRIMINALISTIC</v>
       </c>
     </row>
@@ -4889,7 +4878,7 @@
         <v>113</v>
       </c>
       <c r="C93" t="str">
-        <f>B93</f>
+        <f t="shared" si="4"/>
         <v>CYANOACRYLATE</v>
       </c>
     </row>
@@ -4901,7 +4890,7 @@
         <v>115</v>
       </c>
       <c r="C94" t="str">
-        <f>B94</f>
+        <f t="shared" si="4"/>
         <v>CYCLIC VOLTAMMETRY</v>
       </c>
     </row>
@@ -4913,7 +4902,7 @@
         <v>115</v>
       </c>
       <c r="C95" t="str">
-        <f>B95</f>
+        <f t="shared" si="4"/>
         <v>CYCLIC VOLTAMMETRY</v>
       </c>
     </row>
@@ -4925,7 +4914,7 @@
         <v>120</v>
       </c>
       <c r="C96" t="str">
-        <f>B96</f>
+        <f t="shared" si="4"/>
         <v>DATABASE</v>
       </c>
     </row>
@@ -4937,7 +4926,7 @@
         <v>118</v>
       </c>
       <c r="C97" t="str">
-        <f>B97</f>
+        <f t="shared" si="4"/>
         <v>DATA SET</v>
       </c>
     </row>
@@ -4949,7 +4938,7 @@
         <v>120</v>
       </c>
       <c r="C98" t="str">
-        <f>B98</f>
+        <f t="shared" si="4"/>
         <v>DATABASE</v>
       </c>
     </row>
@@ -4961,7 +4950,7 @@
         <v>120</v>
       </c>
       <c r="C99" t="str">
-        <f>B99</f>
+        <f t="shared" si="4"/>
         <v>DATABASE</v>
       </c>
     </row>
@@ -5033,7 +5022,7 @@
         <v>130</v>
       </c>
       <c r="C105" t="str">
-        <f>B105</f>
+        <f t="shared" ref="C105:C114" si="5">B105</f>
         <v>DEVICE</v>
       </c>
     </row>
@@ -5045,7 +5034,7 @@
         <v>132</v>
       </c>
       <c r="C106" t="str">
-        <f>B106</f>
+        <f t="shared" si="5"/>
         <v>DICARBOXYLIC ACID</v>
       </c>
     </row>
@@ -5057,7 +5046,7 @@
         <v>136</v>
       </c>
       <c r="C107" t="str">
-        <f>B107</f>
+        <f t="shared" si="5"/>
         <v>DIP-PEN LITHOGRAPHY</v>
       </c>
     </row>
@@ -5069,7 +5058,7 @@
         <v>134</v>
       </c>
       <c r="C108" t="str">
-        <f>B108</f>
+        <f t="shared" si="5"/>
         <v>DIPHENLYAMINE (DPA)</v>
       </c>
     </row>
@@ -5081,7 +5070,7 @@
         <v>138</v>
       </c>
       <c r="C109" t="str">
-        <f>B109</f>
+        <f t="shared" si="5"/>
         <v>DISTANCE DETERMINATION</v>
       </c>
     </row>
@@ -5093,7 +5082,7 @@
         <v>140</v>
       </c>
       <c r="C110" t="str">
-        <f>B110</f>
+        <f t="shared" si="5"/>
         <v>DISTANCE-BASED PAD</v>
       </c>
     </row>
@@ -5105,7 +5094,7 @@
         <v>142</v>
       </c>
       <c r="C111" t="str">
-        <f>B111</f>
+        <f t="shared" si="5"/>
         <v>DRUG</v>
       </c>
     </row>
@@ -5117,7 +5106,7 @@
         <v>144</v>
       </c>
       <c r="C112" t="str">
-        <f>B112</f>
+        <f t="shared" si="5"/>
         <v>DYE</v>
       </c>
     </row>
@@ -5129,7 +5118,7 @@
         <v>144</v>
       </c>
       <c r="C113" t="str">
-        <f>B113</f>
+        <f t="shared" si="5"/>
         <v>DYE</v>
       </c>
     </row>
@@ -5141,7 +5130,7 @@
         <v>146</v>
       </c>
       <c r="C114" t="str">
-        <f>B114</f>
+        <f t="shared" si="5"/>
         <v>EAGLE</v>
       </c>
     </row>
@@ -5212,7 +5201,7 @@
         <v>152</v>
       </c>
       <c r="C120" t="str">
-        <f>B120</f>
+        <f t="shared" ref="C120:C125" si="6">B120</f>
         <v>ELECTRON MICROSCOPY</v>
       </c>
     </row>
@@ -5224,7 +5213,7 @@
         <v>152</v>
       </c>
       <c r="C121" t="str">
-        <f>B121</f>
+        <f t="shared" si="6"/>
         <v>ELECTRON MICROSCOPY</v>
       </c>
     </row>
@@ -5236,7 +5225,7 @@
         <v>157</v>
       </c>
       <c r="C122" t="str">
-        <f>B122</f>
+        <f t="shared" si="6"/>
         <v>ELECTRONIC TONGUE</v>
       </c>
     </row>
@@ -5248,7 +5237,7 @@
         <v>80</v>
       </c>
       <c r="C123" t="str">
-        <f>B123</f>
+        <f t="shared" si="6"/>
         <v>CAPILLARY ELECTROPHORESIS</v>
       </c>
     </row>
@@ -5260,7 +5249,7 @@
         <v>159</v>
       </c>
       <c r="C124" t="str">
-        <f>B124</f>
+        <f t="shared" si="6"/>
         <v>ELEMENTAL COMPOSITION</v>
       </c>
     </row>
@@ -5272,7 +5261,7 @@
         <v>161</v>
       </c>
       <c r="C125" t="str">
-        <f>B125</f>
+        <f t="shared" si="6"/>
         <v>EMISSION SPECTROSCOPY</v>
       </c>
     </row>
@@ -5355,7 +5344,7 @@
         <v>163</v>
       </c>
       <c r="C132" t="str">
-        <f>RIGHT(B132,LEN(B132)-FIND("@",SUBSTITUTE(B132," (","@",(LEN(B132)-LEN(SUBSTITUTE(B132," (","")))/LEN(" ("))))</f>
+        <f t="shared" ref="C132:C138" si="7">RIGHT(B132,LEN(B132)-FIND("@",SUBSTITUTE(B132," (","@",(LEN(B132)-LEN(SUBSTITUTE(B132," (","")))/LEN(" ("))))</f>
         <v>(EDS)</v>
       </c>
     </row>
@@ -5367,7 +5356,7 @@
         <v>163</v>
       </c>
       <c r="C133" t="str">
-        <f>RIGHT(B133,LEN(B133)-FIND("@",SUBSTITUTE(B133," (","@",(LEN(B133)-LEN(SUBSTITUTE(B133," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="7"/>
         <v>(EDS)</v>
       </c>
     </row>
@@ -5379,7 +5368,7 @@
         <v>163</v>
       </c>
       <c r="C134" t="str">
-        <f>RIGHT(B134,LEN(B134)-FIND("@",SUBSTITUTE(B134," (","@",(LEN(B134)-LEN(SUBSTITUTE(B134," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="7"/>
         <v>(EDS)</v>
       </c>
     </row>
@@ -5391,7 +5380,7 @@
         <v>163</v>
       </c>
       <c r="C135" t="str">
-        <f>RIGHT(B135,LEN(B135)-FIND("@",SUBSTITUTE(B135," (","@",(LEN(B135)-LEN(SUBSTITUTE(B135," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="7"/>
         <v>(EDS)</v>
       </c>
     </row>
@@ -5403,7 +5392,7 @@
         <v>163</v>
       </c>
       <c r="C136" t="str">
-        <f>RIGHT(B136,LEN(B136)-FIND("@",SUBSTITUTE(B136," (","@",(LEN(B136)-LEN(SUBSTITUTE(B136," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="7"/>
         <v>(EDS)</v>
       </c>
     </row>
@@ -5415,7 +5404,7 @@
         <v>163</v>
       </c>
       <c r="C137" t="str">
-        <f>RIGHT(B137,LEN(B137)-FIND("@",SUBSTITUTE(B137," (","@",(LEN(B137)-LEN(SUBSTITUTE(B137," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="7"/>
         <v>(EDS)</v>
       </c>
     </row>
@@ -5427,7 +5416,7 @@
         <v>163</v>
       </c>
       <c r="C138" t="str">
-        <f>RIGHT(B138,LEN(B138)-FIND("@",SUBSTITUTE(B138," (","@",(LEN(B138)-LEN(SUBSTITUTE(B138," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="7"/>
         <v>(EDS)</v>
       </c>
     </row>
@@ -5567,7 +5556,7 @@
         <v>194</v>
       </c>
       <c r="C150" t="str">
-        <f>B150</f>
+        <f t="shared" ref="C150:C194" si="8">B150</f>
         <v>EXIT WOUND</v>
       </c>
     </row>
@@ -5579,7 +5568,7 @@
         <v>210</v>
       </c>
       <c r="C151" t="str">
-        <f>B151</f>
+        <f t="shared" si="8"/>
         <v>FIREARM DISCHARGE RESIDUE (FDR)</v>
       </c>
     </row>
@@ -5591,7 +5580,7 @@
         <v>717</v>
       </c>
       <c r="C152" t="str">
-        <f>B152</f>
+        <f t="shared" si="8"/>
         <v>FIBRE</v>
       </c>
     </row>
@@ -5603,7 +5592,7 @@
         <v>722</v>
       </c>
       <c r="C153" t="str">
-        <f>B153</f>
+        <f t="shared" si="8"/>
         <v>FIBRE ANALYSIS</v>
       </c>
     </row>
@@ -5615,7 +5604,7 @@
         <v>725</v>
       </c>
       <c r="C154" t="str">
-        <f>B154</f>
+        <f t="shared" si="8"/>
         <v>FIBRE ANALYSIS TECHNIQUES</v>
       </c>
     </row>
@@ -5627,7 +5616,7 @@
         <v>729</v>
       </c>
       <c r="C155" t="str">
-        <f>B155</f>
+        <f t="shared" si="8"/>
         <v>FIBRE BLENDS</v>
       </c>
     </row>
@@ -5639,7 +5628,7 @@
         <v>731</v>
       </c>
       <c r="C156" t="str">
-        <f>B156</f>
+        <f t="shared" si="8"/>
         <v>FIBRE BUNDLE</v>
       </c>
     </row>
@@ -5651,7 +5640,7 @@
         <v>733</v>
       </c>
       <c r="C157" t="str">
-        <f>B157</f>
+        <f t="shared" si="8"/>
         <v>FIBRE CHEMISTRIES</v>
       </c>
     </row>
@@ -5663,7 +5652,7 @@
         <v>735</v>
       </c>
       <c r="C158" t="str">
-        <f>B158</f>
+        <f t="shared" si="8"/>
         <v>FIBRE COATING</v>
       </c>
     </row>
@@ -5675,7 +5664,7 @@
         <v>737</v>
       </c>
       <c r="C159" t="str">
-        <f>B159</f>
+        <f t="shared" si="8"/>
         <v>FIBRE COLLECTION</v>
       </c>
     </row>
@@ -5687,7 +5676,7 @@
         <v>739</v>
       </c>
       <c r="C160" t="str">
-        <f>B160</f>
+        <f t="shared" si="8"/>
         <v>FIBRE COMPARISON</v>
       </c>
     </row>
@@ -5699,7 +5688,7 @@
         <v>741</v>
       </c>
       <c r="C161" t="str">
-        <f>B161</f>
+        <f t="shared" si="8"/>
         <v>FIBRE DEGRADATION</v>
       </c>
     </row>
@@ -5711,7 +5700,7 @@
         <v>743</v>
       </c>
       <c r="C162" t="str">
-        <f>B162</f>
+        <f t="shared" si="8"/>
         <v>FIBRE DISTRIBUTION</v>
       </c>
     </row>
@@ -5723,7 +5712,7 @@
         <v>745</v>
       </c>
       <c r="C163" t="str">
-        <f>B163</f>
+        <f t="shared" si="8"/>
         <v>FIBRE DRESSING</v>
       </c>
     </row>
@@ -5735,7 +5724,7 @@
         <v>747</v>
       </c>
       <c r="C164" t="str">
-        <f>B164</f>
+        <f t="shared" si="8"/>
         <v>FIBRE DYE IDENTIFICATION</v>
       </c>
     </row>
@@ -5747,7 +5736,7 @@
         <v>749</v>
       </c>
       <c r="C165" t="str">
-        <f>B165</f>
+        <f t="shared" si="8"/>
         <v>FIBRE DYES</v>
       </c>
     </row>
@@ -5759,7 +5748,7 @@
         <v>751</v>
       </c>
       <c r="C166" t="str">
-        <f>B166</f>
+        <f t="shared" si="8"/>
         <v>FIBRE END SURFACES</v>
       </c>
     </row>
@@ -5771,7 +5760,7 @@
         <v>753</v>
       </c>
       <c r="C167" t="str">
-        <f>B167</f>
+        <f t="shared" si="8"/>
         <v>FIBRE EVIDENCE</v>
       </c>
     </row>
@@ -5783,7 +5772,7 @@
         <v>756</v>
       </c>
       <c r="C168" t="str">
-        <f>B168</f>
+        <f t="shared" si="8"/>
         <v>FIBRE EXAMINATION</v>
       </c>
     </row>
@@ -5795,7 +5784,7 @@
         <v>759</v>
       </c>
       <c r="C169" t="str">
-        <f>B169</f>
+        <f t="shared" si="8"/>
         <v>FIBRE FINDER</v>
       </c>
     </row>
@@ -5807,7 +5796,7 @@
         <v>761</v>
       </c>
       <c r="C170" t="str">
-        <f>B170</f>
+        <f t="shared" si="8"/>
         <v>FIBRE FORENSIC COMPARISON</v>
       </c>
     </row>
@@ -5819,7 +5808,7 @@
         <v>763</v>
       </c>
       <c r="C171" t="str">
-        <f>B171</f>
+        <f t="shared" si="8"/>
         <v>FIBRE FORENSICS</v>
       </c>
     </row>
@@ -5831,7 +5820,7 @@
         <v>765</v>
       </c>
       <c r="C172" t="str">
-        <f>B172</f>
+        <f t="shared" si="8"/>
         <v>FIBRE FRACTURES</v>
       </c>
     </row>
@@ -5843,7 +5832,7 @@
         <v>767</v>
       </c>
       <c r="C173" t="str">
-        <f>B173</f>
+        <f t="shared" si="8"/>
         <v>FIBRE FREQUENCY</v>
       </c>
     </row>
@@ -5855,7 +5844,7 @@
         <v>769</v>
       </c>
       <c r="C174" t="str">
-        <f>B174</f>
+        <f t="shared" si="8"/>
         <v>FIBRE IDENTIFICATION</v>
       </c>
     </row>
@@ -5867,7 +5856,7 @@
         <v>773</v>
       </c>
       <c r="C175" t="str">
-        <f>B175</f>
+        <f t="shared" si="8"/>
         <v>FIBRE MATERIAL EVIDENCE</v>
       </c>
     </row>
@@ -5879,7 +5868,7 @@
         <v>775</v>
       </c>
       <c r="C176" t="str">
-        <f>B176</f>
+        <f t="shared" si="8"/>
         <v>FIBRE NETWORK</v>
       </c>
     </row>
@@ -5891,7 +5880,7 @@
         <v>777</v>
       </c>
       <c r="C177" t="str">
-        <f>B177</f>
+        <f t="shared" si="8"/>
         <v>FIBRE OPTIC</v>
       </c>
     </row>
@@ -5903,7 +5892,7 @@
         <v>779</v>
       </c>
       <c r="C178" t="str">
-        <f>B178</f>
+        <f t="shared" si="8"/>
         <v>FIBRE OPTIC PROBES</v>
       </c>
     </row>
@@ -5915,7 +5904,7 @@
         <v>781</v>
       </c>
       <c r="C179" t="str">
-        <f>B179</f>
+        <f t="shared" si="8"/>
         <v>FIBRE OPTIC SENSORS</v>
       </c>
     </row>
@@ -5927,7 +5916,7 @@
         <v>783</v>
       </c>
       <c r="C180" t="str">
-        <f>B180</f>
+        <f t="shared" si="8"/>
         <v>FIBRE OPTICS</v>
       </c>
     </row>
@@ -5939,7 +5928,7 @@
         <v>785</v>
       </c>
       <c r="C181" t="str">
-        <f>B181</f>
+        <f t="shared" si="8"/>
         <v>FIBRE ORIENTATION</v>
       </c>
     </row>
@@ -5951,7 +5940,7 @@
         <v>787</v>
       </c>
       <c r="C182" t="str">
-        <f>B182</f>
+        <f t="shared" si="8"/>
         <v>FIBRE PRODUCTION</v>
       </c>
     </row>
@@ -5963,7 +5952,7 @@
         <v>789</v>
       </c>
       <c r="C183" t="str">
-        <f>B183</f>
+        <f t="shared" si="8"/>
         <v>FIBRE PROPORTIONS</v>
       </c>
     </row>
@@ -5975,7 +5964,7 @@
         <v>791</v>
       </c>
       <c r="C184" t="str">
-        <f>B184</f>
+        <f t="shared" si="8"/>
         <v>FIBRE RECOVERY</v>
       </c>
     </row>
@@ -5987,7 +5976,7 @@
         <v>794</v>
       </c>
       <c r="C185" t="str">
-        <f>B185</f>
+        <f t="shared" si="8"/>
         <v>FIBRE REINFORCED CONCRETE</v>
       </c>
     </row>
@@ -5999,7 +5988,7 @@
         <v>796</v>
       </c>
       <c r="C186" t="str">
-        <f>B186</f>
+        <f t="shared" si="8"/>
         <v>FIBRE REINFORCED MATERIALS</v>
       </c>
     </row>
@@ -6011,7 +6000,7 @@
         <v>798</v>
       </c>
       <c r="C187" t="str">
-        <f>B187</f>
+        <f t="shared" si="8"/>
         <v>FIBRE SCALES</v>
       </c>
     </row>
@@ -6023,7 +6012,7 @@
         <v>800</v>
       </c>
       <c r="C188" t="str">
-        <f>B188</f>
+        <f t="shared" si="8"/>
         <v>FIBRE SOLID-PHASE MICROEXTRACTION</v>
       </c>
     </row>
@@ -6035,7 +6024,7 @@
         <v>804</v>
       </c>
       <c r="C189" t="str">
-        <f>B189</f>
+        <f t="shared" si="8"/>
         <v>FIBRE TIP PENS</v>
       </c>
     </row>
@@ -6047,7 +6036,7 @@
         <v>806</v>
       </c>
       <c r="C190" t="str">
-        <f>B190</f>
+        <f t="shared" si="8"/>
         <v>FIBRE TRACTOGRAPHY</v>
       </c>
     </row>
@@ -6059,7 +6048,7 @@
         <v>808</v>
       </c>
       <c r="C191" t="str">
-        <f>B191</f>
+        <f t="shared" si="8"/>
         <v>FIBRE TRANSFER</v>
       </c>
     </row>
@@ -6071,7 +6060,7 @@
         <v>810</v>
       </c>
       <c r="C192" t="str">
-        <f>B192</f>
+        <f t="shared" si="8"/>
         <v>FIBRE TYPES</v>
       </c>
     </row>
@@ -6083,7 +6072,7 @@
         <v>812</v>
       </c>
       <c r="C193" t="str">
-        <f>B193</f>
+        <f t="shared" si="8"/>
         <v>FIBRE: ACRYLIC BICOMPONENT</v>
       </c>
     </row>
@@ -6095,7 +6084,7 @@
         <v>816</v>
       </c>
       <c r="C194" t="str">
-        <f>B194</f>
+        <f t="shared" si="8"/>
         <v>FIBRE-END APPEARANCE</v>
       </c>
     </row>
@@ -6119,7 +6108,7 @@
         <v>820</v>
       </c>
       <c r="C196" t="str">
-        <f>B196</f>
+        <f t="shared" ref="C196:C202" si="9">B196</f>
         <v>FIBRE-MELTING TRACES</v>
       </c>
     </row>
@@ -6131,7 +6120,7 @@
         <v>822</v>
       </c>
       <c r="C197" t="str">
-        <f>B197</f>
+        <f t="shared" si="9"/>
         <v>FIBREOPTICS</v>
       </c>
     </row>
@@ -6143,7 +6132,7 @@
         <v>717</v>
       </c>
       <c r="C198" t="str">
-        <f>B198</f>
+        <f t="shared" si="9"/>
         <v>FIBRE</v>
       </c>
     </row>
@@ -6155,7 +6144,7 @@
         <v>717</v>
       </c>
       <c r="C199" t="str">
-        <f>B199</f>
+        <f t="shared" si="9"/>
         <v>FIBRE</v>
       </c>
     </row>
@@ -6167,7 +6156,7 @@
         <v>824</v>
       </c>
       <c r="C200" t="str">
-        <f>B200</f>
+        <f t="shared" si="9"/>
         <v>FIBRE FORENSIC</v>
       </c>
     </row>
@@ -6179,7 +6168,7 @@
         <v>761</v>
       </c>
       <c r="C201" t="str">
-        <f>B201</f>
+        <f t="shared" si="9"/>
         <v>FIBRE FORENSIC COMPARISON</v>
       </c>
     </row>
@@ -6191,7 +6180,7 @@
         <v>827</v>
       </c>
       <c r="C202" t="str">
-        <f>B202</f>
+        <f t="shared" si="9"/>
         <v>FIBRESCOPE EXAMINATION</v>
       </c>
     </row>
@@ -6215,7 +6204,7 @@
         <v>831</v>
       </c>
       <c r="C204" t="str">
-        <f>B204</f>
+        <f t="shared" ref="C204:C233" si="10">B204</f>
         <v>FIBRE-TIP PEN INKS</v>
       </c>
     </row>
@@ -6227,7 +6216,7 @@
         <v>717</v>
       </c>
       <c r="C205" t="str">
-        <f>B205</f>
+        <f t="shared" si="10"/>
         <v>FIBRE</v>
       </c>
     </row>
@@ -6239,7 +6228,7 @@
         <v>720</v>
       </c>
       <c r="C206" t="str">
-        <f>B206</f>
+        <f t="shared" si="10"/>
         <v>FIBRE - FREQUENCY</v>
       </c>
     </row>
@@ -6251,7 +6240,7 @@
         <v>722</v>
       </c>
       <c r="C207" t="str">
-        <f>B207</f>
+        <f t="shared" si="10"/>
         <v>FIBRE ANALYSIS</v>
       </c>
     </row>
@@ -6263,7 +6252,7 @@
         <v>727</v>
       </c>
       <c r="C208" t="str">
-        <f>B208</f>
+        <f t="shared" si="10"/>
         <v>FIBRE AND TEXTILES</v>
       </c>
     </row>
@@ -6275,7 +6264,7 @@
         <v>753</v>
       </c>
       <c r="C209" t="str">
-        <f>B209</f>
+        <f t="shared" si="10"/>
         <v>FIBRE EVIDENCE</v>
       </c>
     </row>
@@ -6287,7 +6276,7 @@
         <v>756</v>
       </c>
       <c r="C210" t="str">
-        <f>B210</f>
+        <f t="shared" si="10"/>
         <v>FIBRE EXAMINATION</v>
       </c>
     </row>
@@ -6299,7 +6288,7 @@
         <v>771</v>
       </c>
       <c r="C211" t="str">
-        <f>B211</f>
+        <f t="shared" si="10"/>
         <v>FIBRE IN HAIR</v>
       </c>
     </row>
@@ -6311,7 +6300,7 @@
         <v>791</v>
       </c>
       <c r="C212" t="str">
-        <f>B212</f>
+        <f t="shared" si="10"/>
         <v>FIBRE RECOVERY</v>
       </c>
     </row>
@@ -6323,7 +6312,7 @@
         <v>802</v>
       </c>
       <c r="C213" t="str">
-        <f>B213</f>
+        <f t="shared" si="10"/>
         <v>FIBRE TEXTILES</v>
       </c>
     </row>
@@ -6335,7 +6324,7 @@
         <v>814</v>
       </c>
       <c r="C214" t="str">
-        <f>B214</f>
+        <f t="shared" si="10"/>
         <v>FIBRE: TRANSFER AND DISPERSAL</v>
       </c>
     </row>
@@ -6347,7 +6336,7 @@
         <v>198</v>
       </c>
       <c r="C215" t="str">
-        <f>B215</f>
+        <f t="shared" si="10"/>
         <v>FIELD TEST</v>
       </c>
     </row>
@@ -6359,7 +6348,7 @@
         <v>202</v>
       </c>
       <c r="C216" t="str">
-        <f>B216</f>
+        <f t="shared" si="10"/>
         <v>FINGERPRINT</v>
       </c>
     </row>
@@ -6371,7 +6360,7 @@
         <v>202</v>
       </c>
       <c r="C217" t="str">
-        <f>B217</f>
+        <f t="shared" si="10"/>
         <v>FINGERPRINT</v>
       </c>
     </row>
@@ -6383,7 +6372,7 @@
         <v>202</v>
       </c>
       <c r="C218" t="str">
-        <f>B218</f>
+        <f t="shared" si="10"/>
         <v>FINGERPRINT</v>
       </c>
     </row>
@@ -6395,7 +6384,7 @@
         <v>200</v>
       </c>
       <c r="C219" t="str">
-        <f>B219</f>
+        <f t="shared" si="10"/>
         <v>FINGER</v>
       </c>
     </row>
@@ -6407,7 +6396,7 @@
         <v>210</v>
       </c>
       <c r="C220" t="str">
-        <f>B220</f>
+        <f t="shared" si="10"/>
         <v>FIREARM DISCHARGE RESIDUE (FDR)</v>
       </c>
     </row>
@@ -6419,7 +6408,7 @@
         <v>210</v>
       </c>
       <c r="C221" t="str">
-        <f>B221</f>
+        <f t="shared" si="10"/>
         <v>FIREARM DISCHARGE RESIDUE (FDR)</v>
       </c>
     </row>
@@ -6431,7 +6420,7 @@
         <v>206</v>
       </c>
       <c r="C222" t="str">
-        <f>B222</f>
+        <f t="shared" si="10"/>
         <v>FIREARM</v>
       </c>
     </row>
@@ -6443,7 +6432,7 @@
         <v>210</v>
       </c>
       <c r="C223" t="str">
-        <f>B223</f>
+        <f t="shared" si="10"/>
         <v>FIREARM DISCHARGE RESIDUE (FDR)</v>
       </c>
     </row>
@@ -6455,7 +6444,7 @@
         <v>542</v>
       </c>
       <c r="C224" t="str">
-        <f>B224</f>
+        <f t="shared" si="10"/>
         <v>SHOOTING DISTANCE DETERMINATION</v>
       </c>
     </row>
@@ -6467,7 +6456,7 @@
         <v>542</v>
       </c>
       <c r="C225" t="str">
-        <f>B225</f>
+        <f t="shared" si="10"/>
         <v>SHOOTING DISTANCE DETERMINATION</v>
       </c>
     </row>
@@ -6479,7 +6468,7 @@
         <v>542</v>
       </c>
       <c r="C226" t="str">
-        <f>B226</f>
+        <f t="shared" si="10"/>
         <v>SHOOTING DISTANCE DETERMINATION</v>
       </c>
     </row>
@@ -6491,7 +6480,7 @@
         <v>542</v>
       </c>
       <c r="C227" t="str">
-        <f>B227</f>
+        <f t="shared" si="10"/>
         <v>SHOOTING DISTANCE DETERMINATION</v>
       </c>
     </row>
@@ -6503,7 +6492,7 @@
         <v>215</v>
       </c>
       <c r="C228" t="str">
-        <f>B228</f>
+        <f t="shared" si="10"/>
         <v>FLUORENE</v>
       </c>
     </row>
@@ -6515,7 +6504,7 @@
         <v>224</v>
       </c>
       <c r="C229" t="str">
-        <f>B229</f>
+        <f t="shared" si="10"/>
         <v>FORENSIC SCIENCE</v>
       </c>
     </row>
@@ -6527,7 +6516,7 @@
         <v>222</v>
       </c>
       <c r="C230" t="str">
-        <f>B230</f>
+        <f t="shared" si="10"/>
         <v>FORENSIC SAMPLE</v>
       </c>
     </row>
@@ -6539,7 +6528,7 @@
         <v>224</v>
       </c>
       <c r="C231" t="str">
-        <f>B231</f>
+        <f t="shared" si="10"/>
         <v>FORENSIC SCIENCE</v>
       </c>
     </row>
@@ -6551,7 +6540,7 @@
         <v>226</v>
       </c>
       <c r="C232" t="str">
-        <f>B232</f>
+        <f t="shared" si="10"/>
         <v>FORENSIC SCIENTIST</v>
       </c>
     </row>
@@ -6563,7 +6552,7 @@
         <v>224</v>
       </c>
       <c r="C233" t="str">
-        <f>B233</f>
+        <f t="shared" si="10"/>
         <v>FORENSIC SCIENCE</v>
       </c>
     </row>
@@ -6575,7 +6564,7 @@
         <v>231</v>
       </c>
       <c r="C234" t="str">
-        <f>RIGHT(B234,LEN(B234)-FIND("@",SUBSTITUTE(B234," (","@",(LEN(B234)-LEN(SUBSTITUTE(B234," (","")))/LEN(" ("))))</f>
+        <f t="shared" ref="C234:C240" si="11">RIGHT(B234,LEN(B234)-FIND("@",SUBSTITUTE(B234," (","@",(LEN(B234)-LEN(SUBSTITUTE(B234," (","")))/LEN(" ("))))</f>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6587,7 +6576,7 @@
         <v>231</v>
       </c>
       <c r="C235" t="str">
-        <f>RIGHT(B235,LEN(B235)-FIND("@",SUBSTITUTE(B235," (","@",(LEN(B235)-LEN(SUBSTITUTE(B235," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="11"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6599,7 +6588,7 @@
         <v>231</v>
       </c>
       <c r="C236" t="str">
-        <f>RIGHT(B236,LEN(B236)-FIND("@",SUBSTITUTE(B236," (","@",(LEN(B236)-LEN(SUBSTITUTE(B236," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="11"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6611,7 +6600,7 @@
         <v>231</v>
       </c>
       <c r="C237" t="str">
-        <f>RIGHT(B237,LEN(B237)-FIND("@",SUBSTITUTE(B237," (","@",(LEN(B237)-LEN(SUBSTITUTE(B237," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="11"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6623,7 +6612,7 @@
         <v>231</v>
       </c>
       <c r="C238" t="str">
-        <f>RIGHT(B238,LEN(B238)-FIND("@",SUBSTITUTE(B238," (","@",(LEN(B238)-LEN(SUBSTITUTE(B238," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="11"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6635,7 +6624,7 @@
         <v>231</v>
       </c>
       <c r="C239" t="str">
-        <f>RIGHT(B239,LEN(B239)-FIND("@",SUBSTITUTE(B239," (","@",(LEN(B239)-LEN(SUBSTITUTE(B239," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="11"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6647,7 +6636,7 @@
         <v>231</v>
       </c>
       <c r="C240" t="str">
-        <f>RIGHT(B240,LEN(B240)-FIND("@",SUBSTITUTE(B240," (","@",(LEN(B240)-LEN(SUBSTITUTE(B240," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="11"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6671,7 +6660,7 @@
         <v>231</v>
       </c>
       <c r="C242" t="str">
-        <f>RIGHT(B242,LEN(B242)-FIND("@",SUBSTITUTE(B242," (","@",(LEN(B242)-LEN(SUBSTITUTE(B242," (","")))/LEN(" ("))))</f>
+        <f t="shared" ref="C242:C251" si="12">RIGHT(B242,LEN(B242)-FIND("@",SUBSTITUTE(B242," (","@",(LEN(B242)-LEN(SUBSTITUTE(B242," (","")))/LEN(" ("))))</f>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6683,7 +6672,7 @@
         <v>231</v>
       </c>
       <c r="C243" t="str">
-        <f>RIGHT(B243,LEN(B243)-FIND("@",SUBSTITUTE(B243," (","@",(LEN(B243)-LEN(SUBSTITUTE(B243," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="12"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6695,7 +6684,7 @@
         <v>231</v>
       </c>
       <c r="C244" t="str">
-        <f>RIGHT(B244,LEN(B244)-FIND("@",SUBSTITUTE(B244," (","@",(LEN(B244)-LEN(SUBSTITUTE(B244," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="12"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6707,7 +6696,7 @@
         <v>231</v>
       </c>
       <c r="C245" t="str">
-        <f>RIGHT(B245,LEN(B245)-FIND("@",SUBSTITUTE(B245," (","@",(LEN(B245)-LEN(SUBSTITUTE(B245," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="12"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6719,7 +6708,7 @@
         <v>231</v>
       </c>
       <c r="C246" t="str">
-        <f>RIGHT(B246,LEN(B246)-FIND("@",SUBSTITUTE(B246," (","@",(LEN(B246)-LEN(SUBSTITUTE(B246," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="12"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6731,7 +6720,7 @@
         <v>231</v>
       </c>
       <c r="C247" t="str">
-        <f>RIGHT(B247,LEN(B247)-FIND("@",SUBSTITUTE(B247," (","@",(LEN(B247)-LEN(SUBSTITUTE(B247," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="12"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6743,7 +6732,7 @@
         <v>231</v>
       </c>
       <c r="C248" t="str">
-        <f>RIGHT(B248,LEN(B248)-FIND("@",SUBSTITUTE(B248," (","@",(LEN(B248)-LEN(SUBSTITUTE(B248," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="12"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6755,7 +6744,7 @@
         <v>231</v>
       </c>
       <c r="C249" t="str">
-        <f>RIGHT(B249,LEN(B249)-FIND("@",SUBSTITUTE(B249," (","@",(LEN(B249)-LEN(SUBSTITUTE(B249," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="12"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6767,7 +6756,7 @@
         <v>231</v>
       </c>
       <c r="C250" t="str">
-        <f>RIGHT(B250,LEN(B250)-FIND("@",SUBSTITUTE(B250," (","@",(LEN(B250)-LEN(SUBSTITUTE(B250," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="12"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6779,7 +6768,7 @@
         <v>231</v>
       </c>
       <c r="C251" t="str">
-        <f>RIGHT(B251,LEN(B251)-FIND("@",SUBSTITUTE(B251," (","@",(LEN(B251)-LEN(SUBSTITUTE(B251," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="12"/>
         <v>(FT-IR)</v>
       </c>
     </row>
@@ -6803,7 +6792,7 @@
         <v>849</v>
       </c>
       <c r="C253" t="str">
-        <f>RIGHT(B253,LEN(B253)-FIND("@",SUBSTITUTE(B253," (","@",(LEN(B253)-LEN(SUBSTITUTE(B253," (","")))/LEN(" ("))))</f>
+        <f t="shared" ref="C253:C261" si="13">RIGHT(B253,LEN(B253)-FIND("@",SUBSTITUTE(B253," (","@",(LEN(B253)-LEN(SUBSTITUTE(B253," (","")))/LEN(" ("))))</f>
         <v>(GC–MS)</v>
       </c>
     </row>
@@ -6815,7 +6804,7 @@
         <v>236</v>
       </c>
       <c r="C254" t="str">
-        <f>RIGHT(B254,LEN(B254)-FIND("@",SUBSTITUTE(B254," (","@",(LEN(B254)-LEN(SUBSTITUTE(B254," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="13"/>
         <v>(GC-MS)</v>
       </c>
     </row>
@@ -6827,7 +6816,7 @@
         <v>849</v>
       </c>
       <c r="C255" t="str">
-        <f>RIGHT(B255,LEN(B255)-FIND("@",SUBSTITUTE(B255," (","@",(LEN(B255)-LEN(SUBSTITUTE(B255," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="13"/>
         <v>(GC–MS)</v>
       </c>
     </row>
@@ -6839,7 +6828,7 @@
         <v>849</v>
       </c>
       <c r="C256" t="str">
-        <f>RIGHT(B256,LEN(B256)-FIND("@",SUBSTITUTE(B256," (","@",(LEN(B256)-LEN(SUBSTITUTE(B256," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="13"/>
         <v>(GC–MS)</v>
       </c>
     </row>
@@ -6851,7 +6840,7 @@
         <v>236</v>
       </c>
       <c r="C257" t="str">
-        <f>RIGHT(B257,LEN(B257)-FIND("@",SUBSTITUTE(B257," (","@",(LEN(B257)-LEN(SUBSTITUTE(B257," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="13"/>
         <v>(GC-MS)</v>
       </c>
     </row>
@@ -6863,7 +6852,7 @@
         <v>849</v>
       </c>
       <c r="C258" t="str">
-        <f>RIGHT(B258,LEN(B258)-FIND("@",SUBSTITUTE(B258," (","@",(LEN(B258)-LEN(SUBSTITUTE(B258," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="13"/>
         <v>(GC–MS)</v>
       </c>
     </row>
@@ -6875,7 +6864,7 @@
         <v>236</v>
       </c>
       <c r="C259" t="str">
-        <f>RIGHT(B259,LEN(B259)-FIND("@",SUBSTITUTE(B259," (","@",(LEN(B259)-LEN(SUBSTITUTE(B259," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="13"/>
         <v>(GC-MS)</v>
       </c>
     </row>
@@ -6887,7 +6876,7 @@
         <v>849</v>
       </c>
       <c r="C260" t="str">
-        <f>RIGHT(B260,LEN(B260)-FIND("@",SUBSTITUTE(B260," (","@",(LEN(B260)-LEN(SUBSTITUTE(B260," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="13"/>
         <v>(GC–MS)</v>
       </c>
     </row>
@@ -6899,7 +6888,7 @@
         <v>242</v>
       </c>
       <c r="C261" t="str">
-        <f>RIGHT(B261,LEN(B261)-FIND("@",SUBSTITUTE(B261," (","@",(LEN(B261)-LEN(SUBSTITUTE(B261," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="13"/>
         <v>(GC-TEA)</v>
       </c>
     </row>
@@ -6923,7 +6912,7 @@
         <v>236</v>
       </c>
       <c r="C263" t="str">
-        <f>RIGHT(B263,LEN(B263)-FIND("@",SUBSTITUTE(B263," (","@",(LEN(B263)-LEN(SUBSTITUTE(B263," (","")))/LEN(" ("))))</f>
+        <f t="shared" ref="C263:C268" si="14">RIGHT(B263,LEN(B263)-FIND("@",SUBSTITUTE(B263," (","@",(LEN(B263)-LEN(SUBSTITUTE(B263," (","")))/LEN(" ("))))</f>
         <v>(GC-MS)</v>
       </c>
     </row>
@@ -6935,7 +6924,7 @@
         <v>849</v>
       </c>
       <c r="C264" t="str">
-        <f>RIGHT(B264,LEN(B264)-FIND("@",SUBSTITUTE(B264," (","@",(LEN(B264)-LEN(SUBSTITUTE(B264," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="14"/>
         <v>(GC–MS)</v>
       </c>
     </row>
@@ -6947,7 +6936,7 @@
         <v>242</v>
       </c>
       <c r="C265" t="str">
-        <f>RIGHT(B265,LEN(B265)-FIND("@",SUBSTITUTE(B265," (","@",(LEN(B265)-LEN(SUBSTITUTE(B265," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="14"/>
         <v>(GC-TEA)</v>
       </c>
     </row>
@@ -6959,7 +6948,7 @@
         <v>236</v>
       </c>
       <c r="C266" t="str">
-        <f>RIGHT(B266,LEN(B266)-FIND("@",SUBSTITUTE(B266," (","@",(LEN(B266)-LEN(SUBSTITUTE(B266," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="14"/>
         <v>(GC-MS)</v>
       </c>
     </row>
@@ -6971,7 +6960,7 @@
         <v>849</v>
       </c>
       <c r="C267" t="str">
-        <f>RIGHT(B267,LEN(B267)-FIND("@",SUBSTITUTE(B267," (","@",(LEN(B267)-LEN(SUBSTITUTE(B267," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="14"/>
         <v>(GC–MS)</v>
       </c>
     </row>
@@ -6983,7 +6972,7 @@
         <v>242</v>
       </c>
       <c r="C268" t="str">
-        <f>RIGHT(B268,LEN(B268)-FIND("@",SUBSTITUTE(B268," (","@",(LEN(B268)-LEN(SUBSTITUTE(B268," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="14"/>
         <v>(GC-TEA)</v>
       </c>
     </row>
@@ -6995,7 +6984,7 @@
         <v>246</v>
       </c>
       <c r="C269" t="str">
-        <f>B269</f>
+        <f t="shared" ref="C269:C297" si="15">B269</f>
         <v>GOAT</v>
       </c>
     </row>
@@ -7007,7 +6996,7 @@
         <v>709</v>
       </c>
       <c r="C270" t="str">
-        <f>B270</f>
+        <f t="shared" si="15"/>
         <v>COTTON</v>
       </c>
     </row>
@@ -7019,7 +7008,7 @@
         <v>250</v>
       </c>
       <c r="C271" t="str">
-        <f>B271</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7031,7 +7020,7 @@
         <v>250</v>
       </c>
       <c r="C272" t="str">
-        <f>B272</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7043,7 +7032,7 @@
         <v>262</v>
       </c>
       <c r="C273" t="str">
-        <f>B273</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE ANALYSIS</v>
       </c>
     </row>
@@ -7055,7 +7044,7 @@
         <v>265</v>
       </c>
       <c r="C274" t="str">
-        <f>B274</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE CONTAMINATION</v>
       </c>
     </row>
@@ -7067,7 +7056,7 @@
         <v>250</v>
       </c>
       <c r="C275" t="str">
-        <f>B275</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7079,7 +7068,7 @@
         <v>269</v>
       </c>
       <c r="C276" t="str">
-        <f>B276</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE PATTERN</v>
       </c>
     </row>
@@ -7091,7 +7080,7 @@
         <v>206</v>
       </c>
       <c r="C277" t="str">
-        <f>B277</f>
+        <f t="shared" si="15"/>
         <v>FIREARM</v>
       </c>
     </row>
@@ -7103,7 +7092,7 @@
         <v>250</v>
       </c>
       <c r="C278" t="str">
-        <f>B278</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7115,7 +7104,7 @@
         <v>250</v>
       </c>
       <c r="C279" t="str">
-        <f>B279</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7127,7 +7116,7 @@
         <v>248</v>
       </c>
       <c r="C280" t="str">
-        <f>B280</f>
+        <f t="shared" si="15"/>
         <v>GUNPOWDER RESIDUE</v>
       </c>
     </row>
@@ -7139,7 +7128,7 @@
         <v>206</v>
       </c>
       <c r="C281" t="str">
-        <f>B281</f>
+        <f t="shared" si="15"/>
         <v>FIREARM</v>
       </c>
     </row>
@@ -7151,7 +7140,7 @@
         <v>250</v>
       </c>
       <c r="C282" t="str">
-        <f>B282</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7163,7 +7152,7 @@
         <v>262</v>
       </c>
       <c r="C283" t="str">
-        <f>B283</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE ANALYSIS</v>
       </c>
     </row>
@@ -7175,7 +7164,7 @@
         <v>267</v>
       </c>
       <c r="C284" t="str">
-        <f>B284</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE PARTICLE</v>
       </c>
     </row>
@@ -7187,7 +7176,7 @@
         <v>269</v>
       </c>
       <c r="C285" t="str">
-        <f>B285</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE PATTERN</v>
       </c>
     </row>
@@ -7199,7 +7188,7 @@
         <v>250</v>
       </c>
       <c r="C286" t="str">
-        <f>B286</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7211,7 +7200,7 @@
         <v>250</v>
       </c>
       <c r="C287" t="str">
-        <f>B287</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7223,7 +7212,7 @@
         <v>250</v>
       </c>
       <c r="C288" t="str">
-        <f>B288</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7235,7 +7224,7 @@
         <v>250</v>
       </c>
       <c r="C289" t="str">
-        <f>B289</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7247,7 +7236,7 @@
         <v>250</v>
       </c>
       <c r="C290" t="str">
-        <f>B290</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT RESIDUE (GSR)</v>
       </c>
     </row>
@@ -7259,7 +7248,7 @@
         <v>272</v>
       </c>
       <c r="C291" t="str">
-        <f>B291</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT WOUND</v>
       </c>
     </row>
@@ -7271,7 +7260,7 @@
         <v>272</v>
       </c>
       <c r="C292" t="str">
-        <f>B292</f>
+        <f t="shared" si="15"/>
         <v>GUNSHOT WOUND</v>
       </c>
     </row>
@@ -7283,7 +7272,7 @@
         <v>276</v>
       </c>
       <c r="C293" t="str">
-        <f>B293</f>
+        <f t="shared" si="15"/>
         <v>HAIR</v>
       </c>
     </row>
@@ -7295,7 +7284,7 @@
         <v>278</v>
       </c>
       <c r="C294" t="str">
-        <f>B294</f>
+        <f t="shared" si="15"/>
         <v>HANDGUN</v>
       </c>
     </row>
@@ -7307,7 +7296,7 @@
         <v>278</v>
       </c>
       <c r="C295" t="str">
-        <f>B295</f>
+        <f t="shared" si="15"/>
         <v>HANDGUN</v>
       </c>
     </row>
@@ -7319,7 +7308,7 @@
         <v>276</v>
       </c>
       <c r="C296" t="str">
-        <f>B296</f>
+        <f t="shared" si="15"/>
         <v>HAIR</v>
       </c>
     </row>
@@ -7331,7 +7320,7 @@
         <v>281</v>
       </c>
       <c r="C297" t="str">
-        <f>B297</f>
+        <f t="shared" si="15"/>
         <v>HEAVY METAL</v>
       </c>
     </row>
@@ -7343,7 +7332,7 @@
         <v>854</v>
       </c>
       <c r="C298" t="str">
-        <f>RIGHT(B298,LEN(B298)-FIND("@",SUBSTITUTE(B298," (","@",(LEN(B298)-LEN(SUBSTITUTE(B298," (","")))/LEN(" ("))))</f>
+        <f t="shared" ref="C298:C308" si="16">RIGHT(B298,LEN(B298)-FIND("@",SUBSTITUTE(B298," (","@",(LEN(B298)-LEN(SUBSTITUTE(B298," (","")))/LEN(" ("))))</f>
         <v>(HPLC)</v>
       </c>
     </row>
@@ -7355,7 +7344,7 @@
         <v>854</v>
       </c>
       <c r="C299" t="str">
-        <f>RIGHT(B299,LEN(B299)-FIND("@",SUBSTITUTE(B299," (","@",(LEN(B299)-LEN(SUBSTITUTE(B299," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="16"/>
         <v>(HPLC)</v>
       </c>
     </row>
@@ -7367,7 +7356,7 @@
         <v>948</v>
       </c>
       <c r="C300" t="str">
-        <f>RIGHT(B300,LEN(B300)-FIND("@",SUBSTITUTE(B300," (","@",(LEN(B300)-LEN(SUBSTITUTE(B300," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="16"/>
         <v>(HPTLC)</v>
       </c>
     </row>
@@ -7379,7 +7368,7 @@
         <v>284</v>
       </c>
       <c r="C301" t="str">
-        <f>RIGHT(B301,LEN(B301)-FIND("@",SUBSTITUTE(B301," (","@",(LEN(B301)-LEN(SUBSTITUTE(B301," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="16"/>
         <v>(HPLC)</v>
       </c>
     </row>
@@ -7391,7 +7380,7 @@
         <v>854</v>
       </c>
       <c r="C302" t="str">
-        <f>RIGHT(B302,LEN(B302)-FIND("@",SUBSTITUTE(B302," (","@",(LEN(B302)-LEN(SUBSTITUTE(B302," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="16"/>
         <v>(HPLC)</v>
       </c>
     </row>
@@ -7403,7 +7392,7 @@
         <v>856</v>
       </c>
       <c r="C303" t="str">
-        <f>RIGHT(B303,LEN(B303)-FIND("@",SUBSTITUTE(B303," (","@",(LEN(B303)-LEN(SUBSTITUTE(B303," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="16"/>
         <v>(HF-LPME)</v>
       </c>
     </row>
@@ -7415,7 +7404,7 @@
         <v>856</v>
       </c>
       <c r="C304" t="str">
-        <f>RIGHT(B304,LEN(B304)-FIND("@",SUBSTITUTE(B304," (","@",(LEN(B304)-LEN(SUBSTITUTE(B304," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="16"/>
         <v>(HF-LPME)</v>
       </c>
     </row>
@@ -7427,7 +7416,7 @@
         <v>856</v>
       </c>
       <c r="C305" t="str">
-        <f>RIGHT(B305,LEN(B305)-FIND("@",SUBSTITUTE(B305," (","@",(LEN(B305)-LEN(SUBSTITUTE(B305," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="16"/>
         <v>(HF-LPME)</v>
       </c>
     </row>
@@ -7439,7 +7428,7 @@
         <v>856</v>
       </c>
       <c r="C306" t="str">
-        <f>RIGHT(B306,LEN(B306)-FIND("@",SUBSTITUTE(B306," (","@",(LEN(B306)-LEN(SUBSTITUTE(B306," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="16"/>
         <v>(HF-LPME)</v>
       </c>
     </row>
@@ -7451,7 +7440,7 @@
         <v>856</v>
       </c>
       <c r="C307" t="str">
-        <f>RIGHT(B307,LEN(B307)-FIND("@",SUBSTITUTE(B307," (","@",(LEN(B307)-LEN(SUBSTITUTE(B307," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="16"/>
         <v>(HF-LPME)</v>
       </c>
     </row>
@@ -7463,7 +7452,7 @@
         <v>856</v>
       </c>
       <c r="C308" t="str">
-        <f>RIGHT(B308,LEN(B308)-FIND("@",SUBSTITUTE(B308," (","@",(LEN(B308)-LEN(SUBSTITUTE(B308," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="16"/>
         <v>(HF-LPME)</v>
       </c>
     </row>
@@ -7547,7 +7536,7 @@
         <v>303</v>
       </c>
       <c r="C315" t="str">
-        <f>B315</f>
+        <f t="shared" ref="C315:C320" si="17">B315</f>
         <v>(ICP-MS)</v>
       </c>
     </row>
@@ -7559,7 +7548,7 @@
         <v>318</v>
       </c>
       <c r="C316" t="str">
-        <f>B316</f>
+        <f t="shared" si="17"/>
         <v>INORGANIC GUNSHOT RESIDUE (IGSR)</v>
       </c>
     </row>
@@ -7571,7 +7560,7 @@
         <v>291</v>
       </c>
       <c r="C317" t="str">
-        <f>B317</f>
+        <f t="shared" si="17"/>
         <v>IMAGE</v>
       </c>
     </row>
@@ -7583,7 +7572,7 @@
         <v>327</v>
       </c>
       <c r="C318" t="str">
-        <f>B318</f>
+        <f t="shared" si="17"/>
         <v>ION MOBILITY SPECTROMETRY (IMS)</v>
       </c>
     </row>
@@ -7595,7 +7584,7 @@
         <v>297</v>
       </c>
       <c r="C319" t="str">
-        <f>B319</f>
+        <f t="shared" si="17"/>
         <v>INDUCTIVELY COUPLED PLASMA (ICP)</v>
       </c>
     </row>
@@ -7607,7 +7596,7 @@
         <v>297</v>
       </c>
       <c r="C320" t="str">
-        <f>B320</f>
+        <f t="shared" si="17"/>
         <v>INDUCTIVELY COUPLED PLASMA (ICP)</v>
       </c>
     </row>
@@ -7739,7 +7728,7 @@
         <v>309</v>
       </c>
       <c r="C331" t="str">
-        <f>B331</f>
+        <f t="shared" ref="C331:C352" si="18">B331</f>
         <v>INFRARED SPECTROSCOPY (IR)</v>
       </c>
     </row>
@@ -7751,7 +7740,7 @@
         <v>309</v>
       </c>
       <c r="C332" t="str">
-        <f>B332</f>
+        <f t="shared" si="18"/>
         <v>INFRARED SPECTROSCOPY (IR)</v>
       </c>
     </row>
@@ -7763,7 +7752,7 @@
         <v>309</v>
       </c>
       <c r="C333" t="str">
-        <f>B333</f>
+        <f t="shared" si="18"/>
         <v>INFRARED SPECTROSCOPY (IR)</v>
       </c>
     </row>
@@ -7775,7 +7764,7 @@
         <v>309</v>
       </c>
       <c r="C334" t="str">
-        <f>B334</f>
+        <f t="shared" si="18"/>
         <v>INFRARED SPECTROSCOPY (IR)</v>
       </c>
     </row>
@@ -7787,7 +7776,7 @@
         <v>309</v>
       </c>
       <c r="C335" t="str">
-        <f>B335</f>
+        <f t="shared" si="18"/>
         <v>INFRARED SPECTROSCOPY (IR)</v>
       </c>
     </row>
@@ -7799,7 +7788,7 @@
         <v>309</v>
       </c>
       <c r="C336" t="str">
-        <f>B336</f>
+        <f t="shared" si="18"/>
         <v>INFRARED SPECTROSCOPY (IR)</v>
       </c>
     </row>
@@ -7811,7 +7800,7 @@
         <v>309</v>
       </c>
       <c r="C337" t="str">
-        <f>B337</f>
+        <f t="shared" si="18"/>
         <v>INFRARED SPECTROSCOPY (IR)</v>
       </c>
     </row>
@@ -7823,7 +7812,7 @@
         <v>314</v>
       </c>
       <c r="C338" t="str">
-        <f>B338</f>
+        <f t="shared" si="18"/>
         <v>INJURY</v>
       </c>
     </row>
@@ -7835,7 +7824,7 @@
         <v>316</v>
       </c>
       <c r="C339" t="str">
-        <f>B339</f>
+        <f t="shared" si="18"/>
         <v>INK</v>
       </c>
     </row>
@@ -7847,7 +7836,7 @@
         <v>318</v>
       </c>
       <c r="C340" t="str">
-        <f>B340</f>
+        <f t="shared" si="18"/>
         <v>INORGANIC GUNSHOT RESIDUE (IGSR)</v>
       </c>
     </row>
@@ -7859,7 +7848,7 @@
         <v>318</v>
       </c>
       <c r="C341" t="str">
-        <f>B341</f>
+        <f t="shared" si="18"/>
         <v>INORGANIC GUNSHOT RESIDUE (IGSR)</v>
       </c>
     </row>
@@ -7871,7 +7860,7 @@
         <v>318</v>
       </c>
       <c r="C342" t="str">
-        <f>B342</f>
+        <f t="shared" si="18"/>
         <v>INORGANIC GUNSHOT RESIDUE (IGSR)</v>
       </c>
     </row>
@@ -7883,7 +7872,7 @@
         <v>696</v>
       </c>
       <c r="C343" t="str">
-        <f>B343</f>
+        <f t="shared" si="18"/>
         <v>BAYESIAN APPROACH</v>
       </c>
     </row>
@@ -7895,7 +7884,7 @@
         <v>323</v>
       </c>
       <c r="C344" t="str">
-        <f>B344</f>
+        <f t="shared" si="18"/>
         <v>ION BEAM ANALYSIS (IBA)</v>
       </c>
     </row>
@@ -7907,7 +7896,7 @@
         <v>327</v>
       </c>
       <c r="C345" t="str">
-        <f>B345</f>
+        <f t="shared" si="18"/>
         <v>ION MOBILITY SPECTROMETRY (IMS)</v>
       </c>
     </row>
@@ -7919,7 +7908,7 @@
         <v>327</v>
       </c>
       <c r="C346" t="str">
-        <f>B346</f>
+        <f t="shared" si="18"/>
         <v>ION MOBILITY SPECTROMETRY (IMS)</v>
       </c>
     </row>
@@ -7931,7 +7920,7 @@
         <v>331</v>
       </c>
       <c r="C347" t="str">
-        <f>B347</f>
+        <f t="shared" si="18"/>
         <v>IONIZATION SOURCE</v>
       </c>
     </row>
@@ -7943,7 +7932,7 @@
         <v>309</v>
       </c>
       <c r="C348" t="str">
-        <f>B348</f>
+        <f t="shared" si="18"/>
         <v>INFRARED SPECTROSCOPY (IR)</v>
       </c>
     </row>
@@ -7955,7 +7944,7 @@
         <v>309</v>
       </c>
       <c r="C349" t="str">
-        <f>B349</f>
+        <f t="shared" si="18"/>
         <v>INFRARED SPECTROSCOPY (IR)</v>
       </c>
     </row>
@@ -7967,7 +7956,7 @@
         <v>333</v>
       </c>
       <c r="C350" t="str">
-        <f>B350</f>
+        <f t="shared" si="18"/>
         <v>ISOTOPE</v>
       </c>
     </row>
@@ -7979,7 +7968,7 @@
         <v>337</v>
       </c>
       <c r="C351" t="str">
-        <f>B351</f>
+        <f t="shared" si="18"/>
         <v>LABORATORY</v>
       </c>
     </row>
@@ -7991,7 +7980,7 @@
         <v>339</v>
       </c>
       <c r="C352" t="str">
-        <f>B352</f>
+        <f t="shared" si="18"/>
         <v>LANTHANIDE</v>
       </c>
     </row>
@@ -8110,7 +8099,7 @@
         <v>351</v>
       </c>
       <c r="C362" t="str">
-        <f>B362</f>
+        <f t="shared" ref="C362:C370" si="19">B362</f>
         <v>LEAD (PB)</v>
       </c>
     </row>
@@ -8122,7 +8111,7 @@
         <v>353</v>
       </c>
       <c r="C363" t="str">
-        <f>B363</f>
+        <f t="shared" si="19"/>
         <v>LEAD ISOTOPE</v>
       </c>
     </row>
@@ -8134,7 +8123,7 @@
         <v>355</v>
       </c>
       <c r="C364" t="str">
-        <f>B364</f>
+        <f t="shared" si="19"/>
         <v>LEAD-FREE AMMUNITION</v>
       </c>
     </row>
@@ -8146,7 +8135,7 @@
         <v>355</v>
       </c>
       <c r="C365" t="str">
-        <f>B365</f>
+        <f t="shared" si="19"/>
         <v>LEAD-FREE AMMUNITION</v>
       </c>
     </row>
@@ -8158,7 +8147,7 @@
         <v>355</v>
       </c>
       <c r="C366" t="str">
-        <f>B366</f>
+        <f t="shared" si="19"/>
         <v>LEAD-FREE AMMUNITION</v>
       </c>
     </row>
@@ -8170,7 +8159,7 @@
         <v>355</v>
       </c>
       <c r="C367" t="str">
-        <f>B367</f>
+        <f t="shared" si="19"/>
         <v>LEAD-FREE AMMUNITION</v>
       </c>
     </row>
@@ -8182,7 +8171,7 @@
         <v>355</v>
       </c>
       <c r="C368" t="str">
-        <f>B368</f>
+        <f t="shared" si="19"/>
         <v>LEAD-FREE AMMUNITION</v>
       </c>
     </row>
@@ -8194,7 +8183,7 @@
         <v>355</v>
       </c>
       <c r="C369" t="str">
-        <f>B369</f>
+        <f t="shared" si="19"/>
         <v>LEAD-FREE AMMUNITION</v>
       </c>
     </row>
@@ -8206,7 +8195,7 @@
         <v>355</v>
       </c>
       <c r="C370" t="str">
-        <f>B370</f>
+        <f t="shared" si="19"/>
         <v>LEAD-FREE AMMUNITION</v>
       </c>
     </row>
@@ -8230,7 +8219,7 @@
         <v>363</v>
       </c>
       <c r="C372" t="str">
-        <f>B372</f>
+        <f t="shared" ref="C372:C390" si="20">B372</f>
         <v>LIKELIHOOD RATIO</v>
       </c>
     </row>
@@ -8242,7 +8231,7 @@
         <v>363</v>
       </c>
       <c r="C373" t="str">
-        <f>B373</f>
+        <f t="shared" si="20"/>
         <v>LIKELIHOOD RATIO</v>
       </c>
     </row>
@@ -8254,7 +8243,7 @@
         <v>365</v>
       </c>
       <c r="C374" t="str">
-        <f>B374</f>
+        <f t="shared" si="20"/>
         <v>LIQUID CHROMATOGRAPHY (LC)</v>
       </c>
     </row>
@@ -8266,7 +8255,7 @@
         <v>373</v>
       </c>
       <c r="C375" t="str">
-        <f>B375</f>
+        <f t="shared" si="20"/>
         <v>LUMINESCENT MARKER</v>
       </c>
     </row>
@@ -8278,7 +8267,7 @@
         <v>375</v>
       </c>
       <c r="C376" t="str">
-        <f>B376</f>
+        <f t="shared" si="20"/>
         <v>MASS SPECTROMETRY (MS)</v>
       </c>
     </row>
@@ -8290,7 +8279,7 @@
         <v>375</v>
       </c>
       <c r="C377" t="str">
-        <f>B377</f>
+        <f t="shared" si="20"/>
         <v>MASS SPECTROMETRY (MS)</v>
       </c>
     </row>
@@ -8302,7 +8291,7 @@
         <v>375</v>
       </c>
       <c r="C378" t="str">
-        <f>B378</f>
+        <f t="shared" si="20"/>
         <v>MASS SPECTROMETRY (MS)</v>
       </c>
     </row>
@@ -8314,7 +8303,7 @@
         <v>375</v>
       </c>
       <c r="C379" t="str">
-        <f>B379</f>
+        <f t="shared" si="20"/>
         <v>MASS SPECTROMETRY (MS)</v>
       </c>
     </row>
@@ -8326,7 +8315,7 @@
         <v>380</v>
       </c>
       <c r="C380" t="str">
-        <f>B380</f>
+        <f t="shared" si="20"/>
         <v>MASS SPECTROMETRY IMAGING (MSI)</v>
       </c>
     </row>
@@ -8338,7 +8327,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="str">
-        <f>B381</f>
+        <f t="shared" si="20"/>
         <v>MEAT</v>
       </c>
     </row>
@@ -8350,7 +8339,7 @@
         <v>384</v>
       </c>
       <c r="C382" t="str">
-        <f>B382</f>
+        <f t="shared" si="20"/>
         <v>MERCURY</v>
       </c>
     </row>
@@ -8362,7 +8351,7 @@
         <v>388</v>
       </c>
       <c r="C383" t="str">
-        <f>B383</f>
+        <f t="shared" si="20"/>
         <v>METAL ORGANIC FRAMEWORK (MOF)</v>
       </c>
     </row>
@@ -8374,7 +8363,7 @@
         <v>388</v>
       </c>
       <c r="C384" t="str">
-        <f>B384</f>
+        <f t="shared" si="20"/>
         <v>METAL ORGANIC FRAMEWORK (MOF)</v>
       </c>
     </row>
@@ -8386,7 +8375,7 @@
         <v>388</v>
       </c>
       <c r="C385" t="str">
-        <f>B385</f>
+        <f t="shared" si="20"/>
         <v>METAL ORGANIC FRAMEWORK (MOF)</v>
       </c>
     </row>
@@ -8398,7 +8387,7 @@
         <v>388</v>
       </c>
       <c r="C386" t="str">
-        <f>B386</f>
+        <f t="shared" si="20"/>
         <v>METAL ORGANIC FRAMEWORK (MOF)</v>
       </c>
     </row>
@@ -8410,7 +8399,7 @@
         <v>386</v>
       </c>
       <c r="C387" t="str">
-        <f>B387</f>
+        <f t="shared" si="20"/>
         <v>METAL</v>
       </c>
     </row>
@@ -8422,7 +8411,7 @@
         <v>280</v>
       </c>
       <c r="C388" t="str">
-        <f>B388</f>
+        <f t="shared" si="20"/>
         <v>HEAVY METALS</v>
       </c>
     </row>
@@ -8434,7 +8423,7 @@
         <v>394</v>
       </c>
       <c r="C389" t="str">
-        <f>B389</f>
+        <f t="shared" si="20"/>
         <v>METHYL CENTRALITE (MC)</v>
       </c>
     </row>
@@ -8446,7 +8435,7 @@
         <v>394</v>
       </c>
       <c r="C390" t="str">
-        <f>B390</f>
+        <f t="shared" si="20"/>
         <v>METHYL CENTRALITE (MC)</v>
       </c>
     </row>
@@ -8469,7 +8458,7 @@
         <v>401</v>
       </c>
       <c r="C392" t="str">
-        <f>B392</f>
+        <f t="shared" ref="C392:C399" si="21">B392</f>
         <v>MICELLES</v>
       </c>
     </row>
@@ -8481,7 +8470,7 @@
         <v>467</v>
       </c>
       <c r="C393" t="str">
-        <f>B393</f>
+        <f t="shared" si="21"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -8493,7 +8482,7 @@
         <v>403</v>
       </c>
       <c r="C394" t="str">
-        <f>B394</f>
+        <f t="shared" si="21"/>
         <v>MICRO-CT</v>
       </c>
     </row>
@@ -8505,7 +8494,7 @@
         <v>405</v>
       </c>
       <c r="C395" t="str">
-        <f>B395</f>
+        <f t="shared" si="21"/>
         <v>MICROELECTRODE</v>
       </c>
     </row>
@@ -8517,7 +8506,7 @@
         <v>152</v>
       </c>
       <c r="C396" t="str">
-        <f>B396</f>
+        <f t="shared" si="21"/>
         <v>ELECTRON MICROSCOPY</v>
       </c>
     </row>
@@ -8529,7 +8518,7 @@
         <v>10</v>
       </c>
       <c r="C397" t="str">
-        <f>B397</f>
+        <f t="shared" si="21"/>
         <v>ACOUSTIC MICROSCOPY</v>
       </c>
     </row>
@@ -8541,7 +8530,7 @@
         <v>105</v>
       </c>
       <c r="C398" t="str">
-        <f>B398</f>
+        <f t="shared" si="21"/>
         <v>CONFOCAL MICROSCOPY</v>
       </c>
     </row>
@@ -8553,7 +8542,7 @@
         <v>152</v>
       </c>
       <c r="C399" t="str">
-        <f>B399</f>
+        <f t="shared" si="21"/>
         <v>ELECTRON MICROSCOPY</v>
       </c>
     </row>
@@ -8577,7 +8566,7 @@
         <v>152</v>
       </c>
       <c r="C401" t="str">
-        <f>B401</f>
+        <f t="shared" ref="C401:C409" si="22">B401</f>
         <v>ELECTRON MICROSCOPY</v>
       </c>
     </row>
@@ -8589,7 +8578,7 @@
         <v>152</v>
       </c>
       <c r="C402" t="str">
-        <f>B402</f>
+        <f t="shared" si="22"/>
         <v>ELECTRON MICROSCOPY</v>
       </c>
     </row>
@@ -8601,7 +8590,7 @@
         <v>217</v>
       </c>
       <c r="C403" t="str">
-        <f>B403</f>
+        <f t="shared" si="22"/>
         <v>FLUORESCENCE MICROSCOPY</v>
       </c>
     </row>
@@ -8613,7 +8602,7 @@
         <v>869</v>
       </c>
       <c r="C404" t="str">
-        <f>B404</f>
+        <f t="shared" si="22"/>
         <v>MICROSPECTROPHOTOMETRY (MSP)</v>
       </c>
     </row>
@@ -8625,7 +8614,7 @@
         <v>869</v>
       </c>
       <c r="C405" t="str">
-        <f>B405</f>
+        <f t="shared" si="22"/>
         <v>MICROSPECTROPHOTOMETRY (MSP)</v>
       </c>
     </row>
@@ -8637,7 +8626,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="str">
-        <f>B406</f>
+        <f t="shared" si="22"/>
         <v>MIDDLE AGE</v>
       </c>
     </row>
@@ -8649,7 +8638,7 @@
         <v>388</v>
       </c>
       <c r="C407" t="str">
-        <f>B407</f>
+        <f t="shared" si="22"/>
         <v>METAL ORGANIC FRAMEWORK (MOF)</v>
       </c>
     </row>
@@ -8661,7 +8650,7 @@
         <v>869</v>
       </c>
       <c r="C408" t="str">
-        <f>B408</f>
+        <f t="shared" si="22"/>
         <v>MICROSPECTROPHOTOMETRY (MSP)</v>
       </c>
     </row>
@@ -8673,7 +8662,7 @@
         <v>409</v>
       </c>
       <c r="C409" t="str">
-        <f>B409</f>
+        <f t="shared" si="22"/>
         <v>MULTIVARIATE STATISTICAL ANALYSIS</v>
       </c>
     </row>
@@ -8697,7 +8686,7 @@
         <v>416</v>
       </c>
       <c r="C411" t="str">
-        <f>B411</f>
+        <f t="shared" ref="C411:C425" si="23">B411</f>
         <v>NEUTRON ACTIVATION ANALYSIS (NAA)</v>
       </c>
     </row>
@@ -8709,7 +8698,7 @@
         <v>414</v>
       </c>
       <c r="C412" t="str">
-        <f>B412</f>
+        <f t="shared" si="23"/>
         <v>NAPHTHALENE</v>
       </c>
     </row>
@@ -8721,7 +8710,7 @@
         <v>416</v>
       </c>
       <c r="C413" t="str">
-        <f>B413</f>
+        <f t="shared" si="23"/>
         <v>NEUTRON ACTIVATION ANALYSIS (NAA)</v>
       </c>
     </row>
@@ -8733,7 +8722,7 @@
         <v>419</v>
       </c>
       <c r="C414" t="str">
-        <f>B414</f>
+        <f t="shared" si="23"/>
         <v>NOSE HAIR</v>
       </c>
     </row>
@@ -8745,7 +8734,7 @@
         <v>421</v>
       </c>
       <c r="C415" t="str">
-        <f>B415</f>
+        <f t="shared" si="23"/>
         <v>NUCLEAR MAGNETIC RESONANCE (NMR)</v>
       </c>
     </row>
@@ -8757,7 +8746,7 @@
         <v>423</v>
       </c>
       <c r="C416" t="str">
-        <f>B416</f>
+        <f t="shared" si="23"/>
         <v>NUCLEIC ACID</v>
       </c>
     </row>
@@ -8769,7 +8758,7 @@
         <v>931</v>
       </c>
       <c r="C417" t="str">
-        <f>B417</f>
+        <f t="shared" si="23"/>
         <v>NYLON</v>
       </c>
     </row>
@@ -8781,7 +8770,7 @@
         <v>931</v>
       </c>
       <c r="C418" t="str">
-        <f>B418</f>
+        <f t="shared" si="23"/>
         <v>NYLON</v>
       </c>
     </row>
@@ -8793,7 +8782,7 @@
         <v>425</v>
       </c>
       <c r="C419" t="str">
-        <f>B419</f>
+        <f t="shared" si="23"/>
         <v>OCCUPATION</v>
       </c>
     </row>
@@ -8805,7 +8794,7 @@
         <v>427</v>
       </c>
       <c r="C420" t="str">
-        <f>B420</f>
+        <f t="shared" si="23"/>
         <v>ORGANIC GUNSHOT RESIDUE (OGSR)</v>
       </c>
     </row>
@@ -8817,7 +8806,7 @@
         <v>427</v>
       </c>
       <c r="C421" t="str">
-        <f>B421</f>
+        <f t="shared" si="23"/>
         <v>ORGANIC GUNSHOT RESIDUE (OGSR)</v>
       </c>
     </row>
@@ -8829,7 +8818,7 @@
         <v>427</v>
       </c>
       <c r="C422" t="str">
-        <f>B422</f>
+        <f t="shared" si="23"/>
         <v>ORGANIC GUNSHOT RESIDUE (OGSR)</v>
       </c>
     </row>
@@ -8841,7 +8830,7 @@
         <v>427</v>
       </c>
       <c r="C423" t="str">
-        <f>B423</f>
+        <f t="shared" si="23"/>
         <v>ORGANIC GUNSHOT RESIDUE (OGSR)</v>
       </c>
     </row>
@@ -8853,7 +8842,7 @@
         <v>432</v>
       </c>
       <c r="C424" t="str">
-        <f>B424</f>
+        <f t="shared" si="23"/>
         <v>OXIDE</v>
       </c>
     </row>
@@ -8865,7 +8854,7 @@
         <v>874</v>
       </c>
       <c r="C425" t="str">
-        <f>B425</f>
+        <f t="shared" si="23"/>
         <v>PAINT</v>
       </c>
     </row>
@@ -8949,7 +8938,7 @@
         <v>467</v>
       </c>
       <c r="C432" t="str">
-        <f>B432</f>
+        <f t="shared" ref="C432:C451" si="24">B432</f>
         <v>RAMAN</v>
       </c>
     </row>
@@ -8961,7 +8950,7 @@
         <v>876</v>
       </c>
       <c r="C433" t="str">
-        <f>B433</f>
+        <f t="shared" si="24"/>
         <v>POLARIZED LIGHT MICROSCOPY</v>
       </c>
     </row>
@@ -8973,7 +8962,7 @@
         <v>876</v>
       </c>
       <c r="C434" t="str">
-        <f>B434</f>
+        <f t="shared" si="24"/>
         <v>POLARIZED LIGHT MICROSCOPY</v>
       </c>
     </row>
@@ -8985,7 +8974,7 @@
         <v>879</v>
       </c>
       <c r="C435" t="str">
-        <f>B435</f>
+        <f t="shared" si="24"/>
         <v>POLYESTER</v>
       </c>
     </row>
@@ -8997,7 +8986,7 @@
         <v>879</v>
       </c>
       <c r="C436" t="str">
-        <f>B436</f>
+        <f t="shared" si="24"/>
         <v>POLYESTER</v>
       </c>
     </row>
@@ -9009,7 +8998,7 @@
         <v>879</v>
       </c>
       <c r="C437" t="str">
-        <f>B437</f>
+        <f t="shared" si="24"/>
         <v>POLYESTER</v>
       </c>
     </row>
@@ -9021,7 +9010,7 @@
         <v>879</v>
       </c>
       <c r="C438" t="str">
-        <f>B438</f>
+        <f t="shared" si="24"/>
         <v>POLYESTER</v>
       </c>
     </row>
@@ -9033,7 +9022,7 @@
         <v>879</v>
       </c>
       <c r="C439" t="str">
-        <f>B439</f>
+        <f t="shared" si="24"/>
         <v>POLYESTER</v>
       </c>
     </row>
@@ -9045,7 +9034,7 @@
         <v>883</v>
       </c>
       <c r="C440" t="str">
-        <f>B440</f>
+        <f t="shared" si="24"/>
         <v>POLYETHYLENE</v>
       </c>
     </row>
@@ -9057,7 +9046,7 @@
         <v>883</v>
       </c>
       <c r="C441" t="str">
-        <f>B441</f>
+        <f t="shared" si="24"/>
         <v>POLYETHYLENE</v>
       </c>
     </row>
@@ -9069,7 +9058,7 @@
         <v>886</v>
       </c>
       <c r="C442" t="str">
-        <f>B442</f>
+        <f t="shared" si="24"/>
         <v>POLYMER</v>
       </c>
     </row>
@@ -9081,7 +9070,7 @@
         <v>886</v>
       </c>
       <c r="C443" t="str">
-        <f>B443</f>
+        <f t="shared" si="24"/>
         <v>POLYMER</v>
       </c>
     </row>
@@ -9093,7 +9082,7 @@
         <v>889</v>
       </c>
       <c r="C444" t="str">
-        <f>B444</f>
+        <f t="shared" si="24"/>
         <v>POLYPROPYLENE</v>
       </c>
     </row>
@@ -9105,7 +9094,7 @@
         <v>891</v>
       </c>
       <c r="C445" t="str">
-        <f>B445</f>
+        <f t="shared" si="24"/>
         <v>POPULATION STUDY</v>
       </c>
     </row>
@@ -9117,7 +9106,7 @@
         <v>445</v>
       </c>
       <c r="C446" t="str">
-        <f>B446</f>
+        <f t="shared" si="24"/>
         <v>POST MORTEM INTERVAL (PMI)</v>
       </c>
     </row>
@@ -9129,7 +9118,7 @@
         <v>447</v>
       </c>
       <c r="C447" t="str">
-        <f>B447</f>
+        <f t="shared" si="24"/>
         <v>POSTMORTEM CHANGES</v>
       </c>
     </row>
@@ -9141,7 +9130,7 @@
         <v>451</v>
       </c>
       <c r="C448" t="str">
-        <f>B448</f>
+        <f t="shared" si="24"/>
         <v>POWDER PATTERN</v>
       </c>
     </row>
@@ -9153,7 +9142,7 @@
         <v>453</v>
       </c>
       <c r="C449" t="str">
-        <f>B449</f>
+        <f t="shared" si="24"/>
         <v>POWDER TATTOO</v>
       </c>
     </row>
@@ -9165,7 +9154,7 @@
         <v>449</v>
       </c>
       <c r="C450" t="str">
-        <f>B450</f>
+        <f t="shared" si="24"/>
         <v>POWDER</v>
       </c>
     </row>
@@ -9177,7 +9166,7 @@
         <v>455</v>
       </c>
       <c r="C451" t="str">
-        <f>B451</f>
+        <f t="shared" si="24"/>
         <v>PRIMER</v>
       </c>
     </row>
@@ -9213,7 +9202,7 @@
         <v>459</v>
       </c>
       <c r="C454" t="str">
-        <f>B454</f>
+        <f t="shared" ref="C454:C469" si="25">B454</f>
         <v>PROCEDURES</v>
       </c>
     </row>
@@ -9225,7 +9214,7 @@
         <v>461</v>
       </c>
       <c r="C455" t="str">
-        <f>B455</f>
+        <f t="shared" si="25"/>
         <v>PROPELLANT</v>
       </c>
     </row>
@@ -9237,7 +9226,7 @@
         <v>463</v>
       </c>
       <c r="C456" t="str">
-        <f>B456</f>
+        <f t="shared" si="25"/>
         <v>PYROTECHNIC REACTION RESIDUE</v>
       </c>
     </row>
@@ -9249,7 +9238,7 @@
         <v>465</v>
       </c>
       <c r="C457" t="str">
-        <f>B457</f>
+        <f t="shared" si="25"/>
         <v>QUESTIONNAIRES</v>
       </c>
     </row>
@@ -9261,7 +9250,7 @@
         <v>467</v>
       </c>
       <c r="C458" t="str">
-        <f>B458</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9273,7 +9262,7 @@
         <v>467</v>
       </c>
       <c r="C459" t="str">
-        <f>B459</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9285,7 +9274,7 @@
         <v>467</v>
       </c>
       <c r="C460" t="str">
-        <f>B460</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9297,7 +9286,7 @@
         <v>467</v>
       </c>
       <c r="C461" t="str">
-        <f>B461</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9309,7 +9298,7 @@
         <v>467</v>
       </c>
       <c r="C462" t="str">
-        <f>B462</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9321,7 +9310,7 @@
         <v>467</v>
       </c>
       <c r="C463" t="str">
-        <f>B463</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9333,7 +9322,7 @@
         <v>467</v>
       </c>
       <c r="C464" t="str">
-        <f>B464</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9345,7 +9334,7 @@
         <v>467</v>
       </c>
       <c r="C465" t="str">
-        <f>B465</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9357,7 +9346,7 @@
         <v>467</v>
       </c>
       <c r="C466" t="str">
-        <f>B466</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9369,7 +9358,7 @@
         <v>467</v>
       </c>
       <c r="C467" t="str">
-        <f>B467</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9381,7 +9370,7 @@
         <v>467</v>
       </c>
       <c r="C468" t="str">
-        <f>B468</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9393,7 +9382,7 @@
         <v>467</v>
       </c>
       <c r="C469" t="str">
-        <f>B469</f>
+        <f t="shared" si="25"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -9416,7 +9405,7 @@
         <v>483</v>
       </c>
       <c r="C471" t="str">
-        <f>B471</f>
+        <f t="shared" ref="C471:C477" si="26">B471</f>
         <v>RAT</v>
       </c>
     </row>
@@ -9428,7 +9417,7 @@
         <v>485</v>
       </c>
       <c r="C472" t="str">
-        <f>B472</f>
+        <f t="shared" si="26"/>
         <v>REACTION BAND-LENGTH PAD</v>
       </c>
     </row>
@@ -9440,7 +9429,7 @@
         <v>896</v>
       </c>
       <c r="C473" t="str">
-        <f>B473</f>
+        <f t="shared" si="26"/>
         <v>REACTIVE DYE</v>
       </c>
     </row>
@@ -9452,7 +9441,7 @@
         <v>709</v>
       </c>
       <c r="C474" t="str">
-        <f>B474</f>
+        <f t="shared" si="26"/>
         <v>COTTON</v>
       </c>
     </row>
@@ -9464,7 +9453,7 @@
         <v>487</v>
       </c>
       <c r="C475" t="str">
-        <f>B475</f>
+        <f t="shared" si="26"/>
         <v>REVIEW</v>
       </c>
     </row>
@@ -9476,7 +9465,7 @@
         <v>489</v>
       </c>
       <c r="C476" t="str">
-        <f>B476</f>
+        <f t="shared" si="26"/>
         <v>REVOLVER</v>
       </c>
     </row>
@@ -9488,7 +9477,7 @@
         <v>491</v>
       </c>
       <c r="C477" t="str">
-        <f>B477</f>
+        <f t="shared" si="26"/>
         <v>RIBS</v>
       </c>
     </row>
@@ -9620,7 +9609,7 @@
         <v>502</v>
       </c>
       <c r="C488" t="str">
-        <f>B488</f>
+        <f t="shared" ref="C488:C503" si="27">B488</f>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9632,7 +9621,7 @@
         <v>502</v>
       </c>
       <c r="C489" t="str">
-        <f>B489</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9644,7 +9633,7 @@
         <v>502</v>
       </c>
       <c r="C490" t="str">
-        <f>B490</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9656,7 +9645,7 @@
         <v>502</v>
       </c>
       <c r="C491" t="str">
-        <f>B491</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9668,7 +9657,7 @@
         <v>502</v>
       </c>
       <c r="C492" t="str">
-        <f>B492</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9680,7 +9669,7 @@
         <v>502</v>
       </c>
       <c r="C493" t="str">
-        <f>B493</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9692,7 +9681,7 @@
         <v>502</v>
       </c>
       <c r="C494" t="str">
-        <f>B494</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9704,7 +9693,7 @@
         <v>502</v>
       </c>
       <c r="C495" t="str">
-        <f>B495</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9716,7 +9705,7 @@
         <v>502</v>
       </c>
       <c r="C496" t="str">
-        <f>B496</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9728,7 +9717,7 @@
         <v>502</v>
       </c>
       <c r="C497" t="str">
-        <f>B497</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9740,7 +9729,7 @@
         <v>502</v>
       </c>
       <c r="C498" t="str">
-        <f>B498</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9752,7 +9741,7 @@
         <v>502</v>
       </c>
       <c r="C499" t="str">
-        <f>B499</f>
+        <f t="shared" si="27"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9764,7 +9753,7 @@
         <v>540</v>
       </c>
       <c r="C500" t="str">
-        <f>B500</f>
+        <f t="shared" si="27"/>
         <v>SHOOTING</v>
       </c>
     </row>
@@ -9776,7 +9765,7 @@
         <v>542</v>
       </c>
       <c r="C501" t="str">
-        <f>B501</f>
+        <f t="shared" si="27"/>
         <v>SHOOTING DISTANCE DETERMINATION</v>
       </c>
     </row>
@@ -9788,7 +9777,7 @@
         <v>542</v>
       </c>
       <c r="C502" t="str">
-        <f>B502</f>
+        <f t="shared" si="27"/>
         <v>SHOOTING DISTANCE DETERMINATION</v>
       </c>
     </row>
@@ -9800,7 +9789,7 @@
         <v>530</v>
       </c>
       <c r="C503" t="str">
-        <f>B503</f>
+        <f t="shared" si="27"/>
         <v>SCIENTIST</v>
       </c>
     </row>
@@ -9872,7 +9861,7 @@
         <v>502</v>
       </c>
       <c r="C509" t="str">
-        <f>B509</f>
+        <f t="shared" ref="C509:C523" si="28">B509</f>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9884,7 +9873,7 @@
         <v>502</v>
       </c>
       <c r="C510" t="str">
-        <f>B510</f>
+        <f t="shared" si="28"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9896,7 +9885,7 @@
         <v>502</v>
       </c>
       <c r="C511" t="str">
-        <f>B511</f>
+        <f t="shared" si="28"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9908,7 +9897,7 @@
         <v>502</v>
       </c>
       <c r="C512" t="str">
-        <f>B512</f>
+        <f t="shared" si="28"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9920,7 +9909,7 @@
         <v>502</v>
       </c>
       <c r="C513" t="str">
-        <f>B513</f>
+        <f t="shared" si="28"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9932,7 +9921,7 @@
         <v>502</v>
       </c>
       <c r="C514" t="str">
-        <f>B514</f>
+        <f t="shared" si="28"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9944,7 +9933,7 @@
         <v>502</v>
       </c>
       <c r="C515" t="str">
-        <f>B515</f>
+        <f t="shared" si="28"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9956,7 +9945,7 @@
         <v>502</v>
       </c>
       <c r="C516" t="str">
-        <f>B516</f>
+        <f t="shared" si="28"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9968,7 +9957,7 @@
         <v>502</v>
       </c>
       <c r="C517" t="str">
-        <f>B517</f>
+        <f t="shared" si="28"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9980,7 +9969,7 @@
         <v>502</v>
       </c>
       <c r="C518" t="str">
-        <f>B518</f>
+        <f t="shared" si="28"/>
         <v>(SEM-EDS)</v>
       </c>
     </row>
@@ -9992,7 +9981,7 @@
         <v>538</v>
       </c>
       <c r="C519" t="str">
-        <f>B519</f>
+        <f t="shared" si="28"/>
         <v>SENSITIVITY ANALYSIS</v>
       </c>
     </row>
@@ -10004,7 +9993,7 @@
         <v>542</v>
       </c>
       <c r="C520" t="str">
-        <f>B520</f>
+        <f t="shared" si="28"/>
         <v>SHOOTING DISTANCE DETERMINATION</v>
       </c>
     </row>
@@ -10016,7 +10005,7 @@
         <v>542</v>
       </c>
       <c r="C521" t="str">
-        <f>B521</f>
+        <f t="shared" si="28"/>
         <v>SHOOTING DISTANCE DETERMINATION</v>
       </c>
     </row>
@@ -10028,7 +10017,7 @@
         <v>542</v>
       </c>
       <c r="C522" t="str">
-        <f>B522</f>
+        <f t="shared" si="28"/>
         <v>SHOOTING DISTANCE DETERMINATION</v>
       </c>
     </row>
@@ -10040,7 +10029,7 @@
         <v>552</v>
       </c>
       <c r="C523" t="str">
-        <f>B523</f>
+        <f t="shared" si="28"/>
         <v>SILICONE</v>
       </c>
     </row>
@@ -10064,7 +10053,7 @@
         <v>900</v>
       </c>
       <c r="C525" t="str">
-        <f>B525</f>
+        <f t="shared" ref="C525:C530" si="29">B525</f>
         <v>SINGLE FIBRE</v>
       </c>
     </row>
@@ -10076,7 +10065,7 @@
         <v>900</v>
       </c>
       <c r="C526" t="str">
-        <f>B526</f>
+        <f t="shared" si="29"/>
         <v>SINGLE FIBRE</v>
       </c>
     </row>
@@ -10088,7 +10077,7 @@
         <v>900</v>
       </c>
       <c r="C527" t="str">
-        <f>B527</f>
+        <f t="shared" si="29"/>
         <v>SINGLE FIBRE</v>
       </c>
     </row>
@@ -10100,7 +10089,7 @@
         <v>554</v>
       </c>
       <c r="C528" t="str">
-        <f>B528</f>
+        <f t="shared" si="29"/>
         <v>SODIUM RHODIZONATE TEST (SRT)</v>
       </c>
     </row>
@@ -10112,7 +10101,7 @@
         <v>554</v>
       </c>
       <c r="C529" t="str">
-        <f>B529</f>
+        <f t="shared" si="29"/>
         <v>SODIUM RHODIZONATE TEST (SRT)</v>
       </c>
     </row>
@@ -10124,7 +10113,7 @@
         <v>557</v>
       </c>
       <c r="C530" t="str">
-        <f>B530</f>
+        <f t="shared" si="29"/>
         <v>SOLID PHASE EXTRACTION (SPE)</v>
       </c>
     </row>
@@ -10136,7 +10125,7 @@
         <v>903</v>
       </c>
       <c r="C531" t="str">
-        <f>RIGHT(B531,LEN(B531)-FIND("@",SUBSTITUTE(B531," (","@",(LEN(B531)-LEN(SUBSTITUTE(B531," (","")))/LEN(" ("))))</f>
+        <f t="shared" ref="C531:C539" si="30">RIGHT(B531,LEN(B531)-FIND("@",SUBSTITUTE(B531," (","@",(LEN(B531)-LEN(SUBSTITUTE(B531," (","")))/LEN(" ("))))</f>
         <v>(SPME)</v>
       </c>
     </row>
@@ -10148,7 +10137,7 @@
         <v>903</v>
       </c>
       <c r="C532" t="str">
-        <f>RIGHT(B532,LEN(B532)-FIND("@",SUBSTITUTE(B532," (","@",(LEN(B532)-LEN(SUBSTITUTE(B532," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="30"/>
         <v>(SPME)</v>
       </c>
     </row>
@@ -10160,7 +10149,7 @@
         <v>559</v>
       </c>
       <c r="C533" t="str">
-        <f>RIGHT(B533,LEN(B533)-FIND("@",SUBSTITUTE(B533," (","@",(LEN(B533)-LEN(SUBSTITUTE(B533," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="30"/>
         <v>(SPME)</v>
       </c>
     </row>
@@ -10172,7 +10161,7 @@
         <v>903</v>
       </c>
       <c r="C534" t="str">
-        <f>RIGHT(B534,LEN(B534)-FIND("@",SUBSTITUTE(B534," (","@",(LEN(B534)-LEN(SUBSTITUTE(B534," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="30"/>
         <v>(SPME)</v>
       </c>
     </row>
@@ -10184,7 +10173,7 @@
         <v>903</v>
       </c>
       <c r="C535" t="str">
-        <f>RIGHT(B535,LEN(B535)-FIND("@",SUBSTITUTE(B535," (","@",(LEN(B535)-LEN(SUBSTITUTE(B535," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="30"/>
         <v>(SPME)</v>
       </c>
     </row>
@@ -10196,7 +10185,7 @@
         <v>903</v>
       </c>
       <c r="C536" t="str">
-        <f>RIGHT(B536,LEN(B536)-FIND("@",SUBSTITUTE(B536," (","@",(LEN(B536)-LEN(SUBSTITUTE(B536," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="30"/>
         <v>(SPME)</v>
       </c>
     </row>
@@ -10208,7 +10197,7 @@
         <v>559</v>
       </c>
       <c r="C537" t="str">
-        <f>RIGHT(B537,LEN(B537)-FIND("@",SUBSTITUTE(B537," (","@",(LEN(B537)-LEN(SUBSTITUTE(B537," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="30"/>
         <v>(SPME)</v>
       </c>
     </row>
@@ -10220,7 +10209,7 @@
         <v>903</v>
       </c>
       <c r="C538" t="str">
-        <f>RIGHT(B538,LEN(B538)-FIND("@",SUBSTITUTE(B538," (","@",(LEN(B538)-LEN(SUBSTITUTE(B538," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="30"/>
         <v>(SPME)</v>
       </c>
     </row>
@@ -10232,7 +10221,7 @@
         <v>903</v>
       </c>
       <c r="C539" t="str">
-        <f>RIGHT(B539,LEN(B539)-FIND("@",SUBSTITUTE(B539," (","@",(LEN(B539)-LEN(SUBSTITUTE(B539," (","")))/LEN(" ("))))</f>
+        <f t="shared" si="30"/>
         <v>(SPME)</v>
       </c>
     </row>
@@ -10436,7 +10425,7 @@
         <v>568</v>
       </c>
       <c r="C556" t="str">
-        <f>B556</f>
+        <f t="shared" ref="C556:C590" si="31">B556</f>
         <v>SPORT</v>
       </c>
     </row>
@@ -10448,7 +10437,7 @@
         <v>572</v>
       </c>
       <c r="C557" t="str">
-        <f>B557</f>
+        <f t="shared" si="31"/>
         <v>STARTER PISTOL</v>
       </c>
     </row>
@@ -10460,7 +10449,7 @@
         <v>574</v>
       </c>
       <c r="C558" t="str">
-        <f>B558</f>
+        <f t="shared" si="31"/>
         <v>STEREO MICROSCOPE</v>
       </c>
     </row>
@@ -10472,7 +10461,7 @@
         <v>576</v>
       </c>
       <c r="C559" t="str">
-        <f>B559</f>
+        <f t="shared" si="31"/>
         <v>STUB</v>
       </c>
     </row>
@@ -10484,7 +10473,7 @@
         <v>578</v>
       </c>
       <c r="C560" t="str">
-        <f>B560</f>
+        <f t="shared" si="31"/>
         <v>SUB-MICRON</v>
       </c>
     </row>
@@ -10496,7 +10485,7 @@
         <v>580</v>
       </c>
       <c r="C561" t="str">
-        <f>B561</f>
+        <f t="shared" si="31"/>
         <v>SUICIDE</v>
       </c>
     </row>
@@ -10508,7 +10497,7 @@
         <v>582</v>
       </c>
       <c r="C562" t="str">
-        <f>B562</f>
+        <f t="shared" si="31"/>
         <v>SUPPORT VECTOR MACHINE</v>
       </c>
     </row>
@@ -10520,7 +10509,7 @@
         <v>467</v>
       </c>
       <c r="C563" t="str">
-        <f>B563</f>
+        <f t="shared" si="31"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -10532,7 +10521,7 @@
         <v>584</v>
       </c>
       <c r="C564" t="str">
-        <f>B564</f>
+        <f t="shared" si="31"/>
         <v>SURFACE PROPERTY</v>
       </c>
     </row>
@@ -10544,7 +10533,7 @@
         <v>467</v>
       </c>
       <c r="C565" t="str">
-        <f>B565</f>
+        <f t="shared" si="31"/>
         <v>RAMAN</v>
       </c>
     </row>
@@ -10556,7 +10545,7 @@
         <v>586</v>
       </c>
       <c r="C566" t="str">
-        <f>B566</f>
+        <f t="shared" si="31"/>
         <v>SWAB</v>
       </c>
     </row>
@@ -10568,7 +10557,7 @@
         <v>588</v>
       </c>
       <c r="C567" t="str">
-        <f>B567</f>
+        <f t="shared" si="31"/>
         <v>SWEAT GLAND</v>
       </c>
     </row>
@@ -10580,7 +10569,7 @@
         <v>590</v>
       </c>
       <c r="C568" t="str">
-        <f>B568</f>
+        <f t="shared" si="31"/>
         <v>SYNCHROTRON</v>
       </c>
     </row>
@@ -10592,7 +10581,7 @@
         <v>908</v>
       </c>
       <c r="C569" t="str">
-        <f>B569</f>
+        <f t="shared" si="31"/>
         <v>SYNTHETIC FIBRE</v>
       </c>
     </row>
@@ -10604,7 +10593,7 @@
         <v>908</v>
       </c>
       <c r="C570" t="str">
-        <f>B570</f>
+        <f t="shared" si="31"/>
         <v>SYNTHETIC FIBRE</v>
       </c>
     </row>
@@ -10616,7 +10605,7 @@
         <v>592</v>
       </c>
       <c r="C571" t="str">
-        <f>B571</f>
+        <f t="shared" si="31"/>
         <v>TAPE LIFT</v>
       </c>
     </row>
@@ -10628,7 +10617,7 @@
         <v>592</v>
       </c>
       <c r="C572" t="str">
-        <f>B572</f>
+        <f t="shared" si="31"/>
         <v>TAPE LIFT</v>
       </c>
     </row>
@@ -10640,7 +10629,7 @@
         <v>910</v>
       </c>
       <c r="C573" t="str">
-        <f>B573</f>
+        <f t="shared" si="31"/>
         <v>TAPING</v>
       </c>
     </row>
@@ -10652,7 +10641,7 @@
         <v>912</v>
       </c>
       <c r="C574" t="str">
-        <f>B574</f>
+        <f t="shared" si="31"/>
         <v>TARGET FIBRE STUDY</v>
       </c>
     </row>
@@ -10664,7 +10653,7 @@
         <v>912</v>
       </c>
       <c r="C575" t="str">
-        <f>B575</f>
+        <f t="shared" si="31"/>
         <v>TARGET FIBRE STUDY</v>
       </c>
     </row>
@@ -10676,7 +10665,7 @@
         <v>595</v>
       </c>
       <c r="C576" t="str">
-        <f>B576</f>
+        <f t="shared" si="31"/>
         <v>TATTOOING</v>
       </c>
     </row>
@@ -10688,7 +10677,7 @@
         <v>144</v>
       </c>
       <c r="C577" t="str">
-        <f>B577</f>
+        <f t="shared" si="31"/>
         <v>DYE</v>
       </c>
     </row>
@@ -10700,7 +10689,7 @@
         <v>144</v>
       </c>
       <c r="C578" t="str">
-        <f>B578</f>
+        <f t="shared" si="31"/>
         <v>DYE</v>
       </c>
     </row>
@@ -10712,7 +10701,7 @@
         <v>915</v>
       </c>
       <c r="C579" t="str">
-        <f>B579</f>
+        <f t="shared" si="31"/>
         <v>TEXTILE FIBRE</v>
       </c>
     </row>
@@ -10724,7 +10713,7 @@
         <v>915</v>
       </c>
       <c r="C580" t="str">
-        <f>B580</f>
+        <f t="shared" si="31"/>
         <v>TEXTILE FIBRE</v>
       </c>
     </row>
@@ -10736,7 +10725,7 @@
         <v>597</v>
       </c>
       <c r="C581" t="str">
-        <f>B581</f>
+        <f t="shared" si="31"/>
         <v>TEXTILE</v>
       </c>
     </row>
@@ -10748,7 +10737,7 @@
         <v>599</v>
       </c>
       <c r="C582" t="str">
-        <f>B582</f>
+        <f t="shared" si="31"/>
         <v>TEXTILVER NDERUNGEN, PULVERGASE</v>
       </c>
     </row>
@@ -10760,7 +10749,7 @@
         <v>601</v>
       </c>
       <c r="C583" t="str">
-        <f>B583</f>
+        <f t="shared" si="31"/>
         <v>THIN FILM</v>
       </c>
     </row>
@@ -10772,7 +10761,7 @@
         <v>918</v>
       </c>
       <c r="C584" t="str">
-        <f>B584</f>
+        <f t="shared" si="31"/>
         <v>THIN-LAYER CHROMATOGRAPHY (TLC)</v>
       </c>
     </row>
@@ -10781,11 +10770,11 @@
         <v>604</v>
       </c>
       <c r="B585" t="s">
-        <v>603</v>
+        <v>918</v>
       </c>
       <c r="C585" t="str">
-        <f>B585</f>
-        <v>THIN LAYER CHROMATOGRAPHY (TLC)</v>
+        <f t="shared" si="31"/>
+        <v>THIN-LAYER CHROMATOGRAPHY (TLC)</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10796,7 +10785,7 @@
         <v>918</v>
       </c>
       <c r="C586" t="str">
-        <f>B586</f>
+        <f t="shared" si="31"/>
         <v>THIN-LAYER CHROMATOGRAPHY (TLC)</v>
       </c>
     </row>
@@ -10808,7 +10797,7 @@
         <v>918</v>
       </c>
       <c r="C587" t="str">
-        <f>B587</f>
+        <f t="shared" si="31"/>
         <v>THIN-LAYER CHROMATOGRAPHY (TLC)</v>
       </c>
     </row>
@@ -10820,7 +10809,7 @@
         <v>918</v>
       </c>
       <c r="C588" t="str">
-        <f>B588</f>
+        <f t="shared" si="31"/>
         <v>THIN-LAYER CHROMATOGRAPHY (TLC)</v>
       </c>
     </row>
@@ -10832,7 +10821,7 @@
         <v>606</v>
       </c>
       <c r="C589" t="str">
-        <f>B589</f>
+        <f t="shared" si="31"/>
         <v>TIME FACTORS</v>
       </c>
     </row>
@@ -10844,7 +10833,7 @@
         <v>608</v>
       </c>
       <c r="C590" t="str">
-        <f>B590</f>
+        <f t="shared" si="31"/>
         <v>TIME OF FLIGHT (TOF)</v>
       </c>
     </row>
@@ -10940,7 +10929,7 @@
         <v>618</v>
       </c>
       <c r="C598" t="str">
-        <f>B598</f>
+        <f t="shared" ref="C598:C605" si="32">B598</f>
         <v>TOOTH FRACTURE</v>
       </c>
     </row>
@@ -10952,7 +10941,7 @@
         <v>620</v>
       </c>
       <c r="C599" t="str">
-        <f>B599</f>
+        <f t="shared" si="32"/>
         <v>TRACE EVIDENCE</v>
       </c>
     </row>
@@ -10964,7 +10953,7 @@
         <v>620</v>
       </c>
       <c r="C600" t="str">
-        <f>B600</f>
+        <f t="shared" si="32"/>
         <v>TRACE EVIDENCE</v>
       </c>
     </row>
@@ -10976,7 +10965,7 @@
         <v>620</v>
       </c>
       <c r="C601" t="str">
-        <f>B601</f>
+        <f t="shared" si="32"/>
         <v>TRACE EVIDENCE</v>
       </c>
     </row>
@@ -10988,7 +10977,7 @@
         <v>620</v>
       </c>
       <c r="C602" t="str">
-        <f>B602</f>
+        <f t="shared" si="32"/>
         <v>TRACE EVIDENCE</v>
       </c>
     </row>
@@ -11000,7 +10989,7 @@
         <v>625</v>
       </c>
       <c r="C603" t="str">
-        <f>B603</f>
+        <f t="shared" si="32"/>
         <v>TRANSITION-EDGE SENSOR</v>
       </c>
     </row>
@@ -11012,7 +11001,7 @@
         <v>627</v>
       </c>
       <c r="C604" t="str">
-        <f>B604</f>
+        <f t="shared" si="32"/>
         <v>TRICARBOXYLIC ACID</v>
       </c>
     </row>
@@ -11024,7 +11013,7 @@
         <v>629</v>
       </c>
       <c r="C605" t="str">
-        <f>B605</f>
+        <f t="shared" si="32"/>
         <v>TRIPHENYLMETHANE</v>
       </c>
     </row>
@@ -11048,7 +11037,7 @@
         <v>634</v>
       </c>
       <c r="C607" t="str">
-        <f>B607</f>
+        <f t="shared" ref="C607:C624" si="33">B607</f>
         <v>ULTRAVIOLET SPECTROSCOPY</v>
       </c>
     </row>
@@ -11060,7 +11049,7 @@
         <v>636</v>
       </c>
       <c r="C608" t="str">
-        <f>B608</f>
+        <f t="shared" si="33"/>
         <v>UPLC-MS/MS</v>
       </c>
     </row>
@@ -11072,7 +11061,7 @@
         <v>869</v>
       </c>
       <c r="C609" t="str">
-        <f>B609</f>
+        <f t="shared" si="33"/>
         <v>MICROSPECTROPHOTOMETRY (MSP)</v>
       </c>
     </row>
@@ -11084,7 +11073,7 @@
         <v>905</v>
       </c>
       <c r="C610" t="str">
-        <f>B610</f>
+        <f t="shared" si="33"/>
         <v>SPECTROPHOTOMETRY</v>
       </c>
     </row>
@@ -11096,7 +11085,7 @@
         <v>905</v>
       </c>
       <c r="C611" t="str">
-        <f>B611</f>
+        <f t="shared" si="33"/>
         <v>SPECTROPHOTOMETRY</v>
       </c>
     </row>
@@ -11108,7 +11097,7 @@
         <v>923</v>
       </c>
       <c r="C612" t="str">
-        <f>B612</f>
+        <f t="shared" si="33"/>
         <v>VISCOSE</v>
       </c>
     </row>
@@ -11120,7 +11109,7 @@
         <v>638</v>
       </c>
       <c r="C613" t="str">
-        <f>B613</f>
+        <f t="shared" si="33"/>
         <v>VOLATILE ORGANIC COMPOUND</v>
       </c>
     </row>
@@ -11132,7 +11121,7 @@
         <v>925</v>
       </c>
       <c r="C614" t="str">
-        <f>B614</f>
+        <f t="shared" si="33"/>
         <v>WOOL</v>
       </c>
     </row>
@@ -11144,7 +11133,7 @@
         <v>640</v>
       </c>
       <c r="C615" t="str">
-        <f>B615</f>
+        <f t="shared" si="33"/>
         <v>WOUND</v>
       </c>
     </row>
@@ -11156,7 +11145,7 @@
         <v>272</v>
       </c>
       <c r="C616" t="str">
-        <f>B616</f>
+        <f t="shared" si="33"/>
         <v>GUNSHOT WOUND</v>
       </c>
     </row>
@@ -11168,7 +11157,7 @@
         <v>570</v>
       </c>
       <c r="C617" t="str">
-        <f>B617</f>
+        <f t="shared" si="33"/>
         <v>STAB WOUND</v>
       </c>
     </row>
@@ -11180,7 +11169,7 @@
         <v>642</v>
       </c>
       <c r="C618" t="str">
-        <f>B618</f>
+        <f t="shared" si="33"/>
         <v>X-RAY</v>
       </c>
     </row>
@@ -11192,7 +11181,7 @@
         <v>642</v>
       </c>
       <c r="C619" t="str">
-        <f>B619</f>
+        <f t="shared" si="33"/>
         <v>X-RAY</v>
       </c>
     </row>
@@ -11204,7 +11193,7 @@
         <v>646</v>
       </c>
       <c r="C620" t="str">
-        <f>B620</f>
+        <f t="shared" si="33"/>
         <v>X-RAY ABSORPTION</v>
       </c>
     </row>
@@ -11216,7 +11205,7 @@
         <v>648</v>
       </c>
       <c r="C621" t="str">
-        <f>B621</f>
+        <f t="shared" si="33"/>
         <v>X-RAY ANALYSIS</v>
       </c>
     </row>
@@ -11228,7 +11217,7 @@
         <v>650</v>
       </c>
       <c r="C622" t="str">
-        <f>B622</f>
+        <f t="shared" si="33"/>
         <v>X-RAY BEAM</v>
       </c>
     </row>
@@ -11240,7 +11229,7 @@
         <v>652</v>
       </c>
       <c r="C623" t="str">
-        <f>B623</f>
+        <f t="shared" si="33"/>
         <v>X-RAY DIFFRACTION</v>
       </c>
     </row>
@@ -11252,7 +11241,7 @@
         <v>654</v>
       </c>
       <c r="C624" t="str">
-        <f>B624</f>
+        <f t="shared" si="33"/>
         <v>X-RAY DOSE DISTRIBUTION</v>
       </c>
     </row>
